--- a/N_Starvation/common_exchange.xlsx
+++ b/N_Starvation/common_exchange.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="713">
   <si>
     <t>metabolite_common</t>
   </si>
@@ -37,999 +37,1038 @@
     <t>Amino sugars pool</t>
   </si>
   <si>
+    <t>amino-acid-pool-e</t>
+  </si>
+  <si>
+    <t>Adenosine 3-5-bisphosphate</t>
+  </si>
+  <si>
+    <t>Acyl-carrier protein</t>
+  </si>
+  <si>
+    <t>Apo-(acyl-carrier-protein)</t>
+  </si>
+  <si>
+    <t>Thioredoxin</t>
+  </si>
+  <si>
+    <t>Free fatty acids</t>
+  </si>
+  <si>
+    <t>Artificial Protein biomass precursor</t>
+  </si>
+  <si>
+    <t>Cobamide coenzyme</t>
+  </si>
+  <si>
+    <t>Biotin</t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>Glycolaldehyde</t>
+  </si>
+  <si>
+    <t>Lipoylprotein</t>
+  </si>
+  <si>
+    <t>Menaquinone</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>Nicotinate</t>
+  </si>
+  <si>
+    <t>S-Adenosyl-4-methylthio-2-oxobutanoate</t>
+  </si>
+  <si>
+    <t>S-Methyl-5-thio-D-ribose</t>
+  </si>
+  <si>
+    <t>N-Acetylornithine</t>
+  </si>
+  <si>
+    <t>THF-polyglutamate</t>
+  </si>
+  <si>
+    <t>Thiamin diphosphate</t>
+  </si>
+  <si>
+    <t>tRNA</t>
+  </si>
+  <si>
+    <t>Glycolate</t>
+  </si>
+  <si>
+    <t>Ammonium/Ammonia</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Cadaverine</t>
+  </si>
+  <si>
+    <t>Cadmium</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Chloride</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Cobalt ion</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Carbon monoxide</t>
+  </si>
+  <si>
+    <t>Cyanate</t>
+  </si>
+  <si>
+    <t>Orthophosphate</t>
+  </si>
+  <si>
+    <t>Glycogen</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>Hydrogen sulfide</t>
+  </si>
+  <si>
+    <t>HCO3-</t>
+  </si>
+  <si>
+    <t>H+</t>
+  </si>
+  <si>
+    <t>Fe2+</t>
+  </si>
+  <si>
+    <t>Photon</t>
+  </si>
+  <si>
+    <t>Magnesium cation</t>
+  </si>
+  <si>
+    <t>Molybdate/Molybdenum</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Selenate</t>
+  </si>
+  <si>
+    <t>Na+</t>
+  </si>
+  <si>
+    <t>Spermine</t>
+  </si>
+  <si>
+    <t>Strontium cation</t>
+  </si>
+  <si>
+    <t>Sulfate</t>
+  </si>
+  <si>
+    <t>Thiosulfate</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>Zn2+</t>
+  </si>
+  <si>
+    <t>L-Alanine</t>
+  </si>
+  <si>
+    <t>L-Arginine</t>
+  </si>
+  <si>
+    <t>L-Asparagine</t>
+  </si>
+  <si>
+    <t>L-Aspartate</t>
+  </si>
+  <si>
+    <t>L-Cystine</t>
+  </si>
+  <si>
+    <t>L-Glutamate</t>
+  </si>
+  <si>
+    <t>L-Glutamine</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>L-Histidine</t>
+  </si>
+  <si>
+    <t>L-Isoleucine</t>
+  </si>
+  <si>
+    <t>L-Leucine</t>
+  </si>
+  <si>
+    <t>L-Lysine</t>
+  </si>
+  <si>
+    <t>L-Methionine</t>
+  </si>
+  <si>
+    <t>L-Phenylalanine</t>
+  </si>
+  <si>
+    <t>L-Proline</t>
+  </si>
+  <si>
+    <t>L-Serine</t>
+  </si>
+  <si>
+    <t>L-Threonine</t>
+  </si>
+  <si>
+    <t>L-Tryptophan</t>
+  </si>
+  <si>
+    <t>L-Tyrosine</t>
+  </si>
+  <si>
+    <t>L-Valine</t>
+  </si>
+  <si>
+    <t>D-Glucose</t>
+  </si>
+  <si>
+    <t>sn-Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>Lipid A disaccharide</t>
+  </si>
+  <si>
+    <t>Phosphonate</t>
+  </si>
+  <si>
+    <t>Acetate</t>
+  </si>
+  <si>
+    <t>Citrate</t>
+  </si>
+  <si>
+    <t>Formate</t>
+  </si>
+  <si>
+    <t>Pyruvate</t>
+  </si>
+  <si>
+    <t>Fumarate</t>
+  </si>
+  <si>
+    <t>Glutathione</t>
+  </si>
+  <si>
+    <t>4-Methyl-2-oxopentanoate</t>
+  </si>
+  <si>
+    <t>Pantothenate</t>
+  </si>
+  <si>
+    <t>Succinate</t>
+  </si>
+  <si>
+    <t>Thymidine</t>
+  </si>
+  <si>
+    <t>Xanthosine</t>
+  </si>
+  <si>
+    <t>4-Aminobenzoate</t>
+  </si>
+  <si>
+    <t>5-Methylthioadenosine</t>
+  </si>
+  <si>
+    <t>Adenine</t>
+  </si>
+  <si>
+    <t>Dethiobiotin</t>
+  </si>
+  <si>
+    <t>Guanine</t>
+  </si>
+  <si>
+    <t>Guanosine</t>
+  </si>
+  <si>
+    <t>Putrescine</t>
+  </si>
+  <si>
+    <t>Spermidine</t>
+  </si>
+  <si>
+    <t>4-Hydroxybenzoate</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>S-Malate/L-Malate</t>
+  </si>
+  <si>
+    <t>Hydrogen peroxide</t>
+  </si>
+  <si>
+    <t>1,4-alpha-D-glucan</t>
+  </si>
+  <si>
+    <t>2,5-diketo-D-gluconate</t>
+  </si>
+  <si>
+    <t>2-Aminoethylphosphonate</t>
+  </si>
+  <si>
+    <t>N  2 methyl 3 5 dinitrophenyl  4 methyl 3 5 dinitroaniline</t>
+  </si>
+  <si>
+    <t>2-Phosphoglycolate</t>
+  </si>
+  <si>
+    <t>N N bis 3 5 dinitrotolyl  amine</t>
+  </si>
+  <si>
+    <t>3 Hydroxy 4 acetylthiobutanoic acid</t>
+  </si>
+  <si>
+    <t>3-Methylbutanoic acid</t>
+  </si>
+  <si>
+    <t>4-Hydroxy-benzyl alcohol</t>
+  </si>
+  <si>
+    <t>4-Hydroxybenzaldehyde</t>
+  </si>
+  <si>
+    <t>4-Hydroxyphenylacetate</t>
+  </si>
+  <si>
+    <t>5-Dehydro-D-gluconate</t>
+  </si>
+  <si>
+    <t>5'-deoxyribose</t>
+  </si>
+  <si>
+    <t>5-Methylthio-5-deoxy-D-ribulose 1-phosphate</t>
+  </si>
+  <si>
+    <t>6 acetylthiohexanoic acid</t>
+  </si>
+  <si>
+    <t>L-alanine-L-glutamate</t>
+  </si>
+  <si>
+    <t>4-aminobenzoate-glutamate</t>
+  </si>
+  <si>
+    <t>L Arabinitol C5H12O5</t>
+  </si>
+  <si>
+    <t>Acetoacetate</t>
+  </si>
+  <si>
+    <t>Acetaldehyde</t>
+  </si>
+  <si>
+    <t>N-Acetyl-D-glucosamine</t>
+  </si>
+  <si>
+    <t>N-Acetyl-D-mannosamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R  Acetoin C4H8O2</t>
+  </si>
+  <si>
+    <t>Adenosine</t>
+  </si>
+  <si>
+    <t>Ala L asp L C7H11N2O5</t>
+  </si>
+  <si>
+    <t>Ala L glu L C8H13N2O5</t>
+  </si>
+  <si>
+    <t>Ala-L-Thr-L</t>
+  </si>
+  <si>
+    <t>D-Alanine</t>
+  </si>
+  <si>
+    <t>Ala-Gln</t>
+  </si>
+  <si>
+    <t>Ala-His</t>
+  </si>
+  <si>
+    <t>Ala-Leu</t>
+  </si>
+  <si>
+    <t>L-alanylglycine</t>
+  </si>
+  <si>
+    <t>L alaninylhistidine</t>
+  </si>
+  <si>
+    <t>L alaninylleucine</t>
+  </si>
+  <si>
+    <t>L alaninylthreonine</t>
+  </si>
+  <si>
+    <t>L alaninyltryptophan</t>
+  </si>
+  <si>
+    <t>Allantoin</t>
+  </si>
+  <si>
+    <t>L-Arabinose</t>
+  </si>
+  <si>
+    <t>Arbutin 6-phosphate</t>
+  </si>
+  <si>
+    <t>Arbutin C12H16O7</t>
+  </si>
+  <si>
+    <t>L-Ascorbate</t>
+  </si>
+  <si>
+    <t>Arsenite</t>
+  </si>
+  <si>
+    <t>Arsenate</t>
+  </si>
+  <si>
+    <t>(R)-3-Hydroxybutanoate</t>
+  </si>
+  <si>
+    <t>Butyrate (n-C4:0)</t>
+  </si>
+  <si>
+    <t>Benzoate</t>
+  </si>
+  <si>
+    <t>Cellobiose</t>
+  </si>
+  <si>
+    <t>Cys Gly C5H10N2O3S</t>
+  </si>
+  <si>
+    <t>Choline C5H14NO</t>
+  </si>
+  <si>
+    <t>Choline sulfate</t>
+  </si>
+  <si>
+    <t>N,N'-diacetylchitobiose</t>
+  </si>
+  <si>
+    <t>Trans-Cinnamate</t>
+  </si>
+  <si>
+    <t>L-Carnitine</t>
+  </si>
+  <si>
+    <t>Cytosine</t>
+  </si>
+  <si>
+    <t>Hydrogen cyanide</t>
+  </si>
+  <si>
+    <t>L-Cysteine</t>
+  </si>
+  <si>
+    <t>Cytidine</t>
+  </si>
+  <si>
+    <t>Deoxyadenosine</t>
+  </si>
+  <si>
+    <t>Decanoate (n-C10:0)</t>
+  </si>
+  <si>
+    <t>Deoxycytidine</t>
+  </si>
+  <si>
+    <t>Dodecanoate (n-C12:0)</t>
+  </si>
+  <si>
+    <t>Dextrin C12H20O10</t>
+  </si>
+  <si>
+    <t>Deoxyguanosine</t>
+  </si>
+  <si>
+    <t>Deoxyinosine</t>
+  </si>
+  <si>
+    <t>Deoxyribose C5H10O4</t>
+  </si>
+  <si>
+    <t>Deoxyuridine</t>
+  </si>
+  <si>
+    <t>Enterochelin</t>
+  </si>
+  <si>
+    <t>Ethanolamine</t>
+  </si>
+  <si>
+    <t>Formaldehyde</t>
+  </si>
+  <si>
+    <t>Iron (Fe3+)</t>
+  </si>
+  <si>
+    <t>Fe(III)dicitrate</t>
+  </si>
+  <si>
+    <t>Ferrypyoverdine  P putida KT2440 specific</t>
+  </si>
+  <si>
+    <t>Fe-enterobactin</t>
+  </si>
+  <si>
+    <t>Generic ferrioxamine-Fe-III</t>
+  </si>
+  <si>
+    <t>Ferroxamine minus Fe(3)</t>
+  </si>
+  <si>
+    <t>D-Fructose</t>
+  </si>
+  <si>
+    <t>L-Fucose</t>
+  </si>
+  <si>
+    <t>Sn-Glycero-3-phosphocholine</t>
+  </si>
+  <si>
+    <t>Sn-Glycero-3-phosphoethanolamine</t>
+  </si>
+  <si>
+    <t>Glycerophosphoglycerol</t>
+  </si>
+  <si>
+    <t>Sn-Glycero-3-phospho-1-inositol</t>
+  </si>
+  <si>
+    <t>Glycerophosphoserine</t>
+  </si>
+  <si>
+    <t>Beta D-Galactose</t>
+  </si>
+  <si>
+    <t>D-Galactose</t>
+  </si>
+  <si>
+    <t>Galactitol</t>
+  </si>
+  <si>
+    <t>D-Galacturonate</t>
+  </si>
+  <si>
+    <t>D-Glucosamine</t>
+  </si>
+  <si>
+    <t>D-Glucuronate</t>
+  </si>
+  <si>
+    <t>Gly asn L C6H11N3O4</t>
+  </si>
+  <si>
+    <t>Gly asp L C6H9N2O5</t>
+  </si>
+  <si>
+    <t>Gly-Cys</t>
+  </si>
+  <si>
+    <t>Gly-Gln</t>
+  </si>
+  <si>
+    <t>Gly glu L C7H11N2O5</t>
+  </si>
+  <si>
+    <t>Gly-Leu</t>
+  </si>
+  <si>
+    <t>Gly-Met</t>
+  </si>
+  <si>
+    <t>Gly-Phe</t>
+  </si>
+  <si>
+    <t>Gly pro L C7H12N2O3</t>
+  </si>
+  <si>
+    <t>Gly-Tyr</t>
+  </si>
+  <si>
+    <t>Glycine betaine</t>
+  </si>
+  <si>
+    <t>Glycerol 2-phosphate</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>Glycerol</t>
+  </si>
+  <si>
+    <t>Glycol</t>
+  </si>
+  <si>
+    <t>L glycinylglutamine</t>
+  </si>
+  <si>
+    <t>L glycinylglutamate</t>
+  </si>
+  <si>
+    <t>Glycylglycine C4H8N2O3</t>
+  </si>
+  <si>
+    <t>Glycine-glycine-glutamine tripeptide</t>
+  </si>
+  <si>
+    <t>L Glycinylmethionine</t>
+  </si>
+  <si>
+    <t>Glycylphenylalanine</t>
+  </si>
+  <si>
+    <t>L glycinylserine</t>
+  </si>
+  <si>
+    <t>Reduced glutathione</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Bicarbonate</t>
+  </si>
+  <si>
+    <t>Hexadecanoate (n-C16:0)</t>
+  </si>
+  <si>
+    <t>Hexadecenoate (n-C16:1)</t>
+  </si>
+  <si>
+    <t>L histidinylglycine</t>
+  </si>
+  <si>
+    <t>L histidinylhistidine</t>
+  </si>
+  <si>
+    <t>L-Homoserine</t>
+  </si>
+  <si>
+    <t>Heptanoate</t>
+  </si>
+  <si>
+    <t>Hexanoate (n-C6:0)</t>
+  </si>
+  <si>
+    <t>Hypoxanthine</t>
+  </si>
+  <si>
+    <t>Isobutyrate</t>
+  </si>
+  <si>
+    <t>L-Idonate</t>
+  </si>
+  <si>
+    <t>Indole 3 acetate C10H8NO2</t>
+  </si>
+  <si>
+    <t>Indole</t>
+  </si>
+  <si>
+    <t>Myo-Inositol</t>
+  </si>
+  <si>
+    <t>Inosine</t>
+  </si>
+  <si>
+    <t>Iron bound extracellular staphyloferrin B</t>
+  </si>
+  <si>
+    <t>D-Lactate</t>
+  </si>
+  <si>
+    <t>L-Lactate</t>
+  </si>
+  <si>
+    <t>Lactose C12H22O11</t>
+  </si>
+  <si>
+    <t>Leucylleucine</t>
+  </si>
+  <si>
+    <t>Linoleic acid (all cis C18:2) n-6</t>
+  </si>
+  <si>
+    <t>Lysine-glutamine-glycine tripeptide</t>
+  </si>
+  <si>
+    <t>M-Xylene</t>
+  </si>
+  <si>
+    <t>S_Malate/L-Malate</t>
+  </si>
+  <si>
+    <t>Maltose C12H22O11</t>
+  </si>
+  <si>
+    <t>Maltopentaose</t>
+  </si>
+  <si>
+    <t>D-Mannose</t>
+  </si>
+  <si>
+    <t>Melibiose C12H22O11</t>
+  </si>
+  <si>
+    <t>Met L ala L C8H16N2O3S</t>
+  </si>
+  <si>
+    <t>D-Methionine</t>
+  </si>
+  <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>D-Mannitol</t>
+  </si>
+  <si>
+    <t>(2R,4S)-2-methyl-2,3,3,4-tetrahydroxytetrahydrofuran</t>
+  </si>
+  <si>
+    <t>NMN C11H14N2O8P</t>
+  </si>
+  <si>
+    <t>Nitrite</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Nonanoate C9H17O2</t>
+  </si>
+  <si>
+    <t>Octadecanoate (n-C18:0)</t>
+  </si>
+  <si>
+    <t>Octadecenoate (n-C18:1)</t>
+  </si>
+  <si>
+    <t>Octanoate (n-C8:0)</t>
+  </si>
+  <si>
+    <t>Ornithine</t>
+  </si>
+  <si>
+    <t>Oxalate</t>
+  </si>
+  <si>
+    <t>P-methyltoluene</t>
+  </si>
+  <si>
+    <t>Phenylacetaldehyde</t>
+  </si>
+  <si>
+    <t>Phenylethyl alcohol</t>
+  </si>
+  <si>
+    <t>Phenethylamine</t>
+  </si>
+  <si>
+    <t>10 Phenyldecanoic acid</t>
+  </si>
+  <si>
+    <t>7 Phenylheptanoic acid</t>
+  </si>
+  <si>
+    <t>6 Phenylhexanoic acid</t>
+  </si>
+  <si>
+    <t>Protoheme C34H30FeN4O4</t>
+  </si>
+  <si>
+    <t>9 Phenylnonanoic acid</t>
+  </si>
+  <si>
+    <t>8 Phenyloctanoic acid</t>
+  </si>
+  <si>
+    <t>5 phenylvaleric acid</t>
+  </si>
+  <si>
+    <t>Pimelate</t>
+  </si>
+  <si>
+    <t>Propionate (n-C3:0)</t>
+  </si>
+  <si>
+    <t>Diphosphate</t>
+  </si>
+  <si>
+    <t>1-Propanol</t>
+  </si>
+  <si>
+    <t>L-Prolinylglycine</t>
+  </si>
+  <si>
+    <t>Pentanoate</t>
+  </si>
+  <si>
+    <t>Petroselaidic acid</t>
+  </si>
+  <si>
+    <t>Pyoverdine  P putida specific</t>
+  </si>
+  <si>
+    <t>Quinate</t>
+  </si>
+  <si>
+    <t>Raffinose C18H32O16</t>
+  </si>
+  <si>
+    <t>D-Ribose</t>
+  </si>
+  <si>
+    <t>Sulfur</t>
+  </si>
+  <si>
+    <t>Salmochelin-S4</t>
+  </si>
+  <si>
+    <t>Salmochelin-S4-Fe-III</t>
+  </si>
+  <si>
+    <t>D-Sorbitol</t>
+  </si>
+  <si>
+    <t>Serine-glutamine-glycine tripeptide</t>
+  </si>
+  <si>
+    <t>Siroheme C42H36FeN4O16</t>
+  </si>
+  <si>
+    <t>Selenite</t>
+  </si>
+  <si>
+    <t>Sulfite</t>
+  </si>
+  <si>
+    <t>Starch C12H20O10</t>
+  </si>
+  <si>
+    <t>Staphyloferrin B</t>
+  </si>
+  <si>
+    <t>Sucrose C12H22O11</t>
+  </si>
+  <si>
+    <t>Thiocyanate</t>
+  </si>
+  <si>
+    <t>Thiamin</t>
+  </si>
+  <si>
+    <t>Thymine C5H6N2O2</t>
+  </si>
+  <si>
+    <t>2 4 6 Trinitrotoluene</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>Trehalose</t>
+  </si>
+  <si>
+    <t>Tetradecanoate (n-C14:0)</t>
+  </si>
+  <si>
+    <t>Tetradecenoate (n-C14:1)</t>
+  </si>
+  <si>
+    <t>Undecaprenyl diphosphate</t>
+  </si>
+  <si>
+    <t>Undecaprenyl phosphate</t>
+  </si>
+  <si>
+    <t>Uracil</t>
+  </si>
+  <si>
+    <t>Uridine</t>
+  </si>
+  <si>
+    <t>Vanillate</t>
+  </si>
+  <si>
+    <t>Xanthine</t>
+  </si>
+  <si>
+    <t>D-Xylose</t>
+  </si>
+  <si>
     <t>amino_acid_pool_e</t>
   </si>
   <si>
     <t>Adenosine 3_5-bisphosphate</t>
   </si>
   <si>
-    <t>Acyl-carrier protein</t>
-  </si>
-  <si>
-    <t>Apo-(acyl-carrier-protein)</t>
-  </si>
-  <si>
-    <t>Thioredoxin</t>
-  </si>
-  <si>
-    <t>Free fatty acids</t>
-  </si>
-  <si>
-    <t>Artificial Protein biomass precursor</t>
-  </si>
-  <si>
-    <t>Cobamide coenzyme</t>
-  </si>
-  <si>
-    <t>Biotin</t>
-  </si>
-  <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>Glycolaldehyde</t>
-  </si>
-  <si>
-    <t>Lipoylprotein</t>
-  </si>
-  <si>
-    <t>Menaquinone</t>
-  </si>
-  <si>
-    <t>Methanol</t>
-  </si>
-  <si>
-    <t>Nicotinate</t>
-  </si>
-  <si>
-    <t>S-Adenosyl-4-methylthio-2-oxobutanoate</t>
-  </si>
-  <si>
-    <t>S-Methyl-5-thio-D-ribose</t>
-  </si>
-  <si>
-    <t>N-Acetylornithine</t>
-  </si>
-  <si>
-    <t>THF-polyglutamate</t>
-  </si>
-  <si>
-    <t>Thiamin diphosphate</t>
-  </si>
-  <si>
-    <t>tRNA</t>
-  </si>
-  <si>
-    <t>Glycolate</t>
-  </si>
-  <si>
-    <t>Ammonium/Ammonia</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>Cadaverine</t>
-  </si>
-  <si>
-    <t>Cadmium</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>Chloride</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>Cobalt ion</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>Carbon monoxide</t>
-  </si>
-  <si>
-    <t>Cyanate</t>
-  </si>
-  <si>
-    <t>Orthophosphate</t>
-  </si>
-  <si>
-    <t>Glycogen</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>Hydrogen sulfide</t>
-  </si>
-  <si>
-    <t>HCO3-</t>
-  </si>
-  <si>
-    <t>H+</t>
-  </si>
-  <si>
-    <t>Fe2+</t>
-  </si>
-  <si>
-    <t>Photon</t>
-  </si>
-  <si>
-    <t>Magnesium cation</t>
-  </si>
-  <si>
-    <t>Molybdate/Molybdenum</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>Selenate</t>
-  </si>
-  <si>
-    <t>Na+</t>
-  </si>
-  <si>
-    <t>Spermine</t>
-  </si>
-  <si>
-    <t>Strontium cation</t>
-  </si>
-  <si>
-    <t>Sulfate</t>
-  </si>
-  <si>
-    <t>Thiosulfate</t>
-  </si>
-  <si>
-    <t>Urea</t>
-  </si>
-  <si>
-    <t>Zn2+</t>
-  </si>
-  <si>
-    <t>L-Alanine</t>
-  </si>
-  <si>
-    <t>L-Arginine</t>
-  </si>
-  <si>
-    <t>L-Asparagine</t>
-  </si>
-  <si>
-    <t>L-Aspartate</t>
-  </si>
-  <si>
-    <t>L-Cystine</t>
-  </si>
-  <si>
-    <t>L-Glutamate</t>
-  </si>
-  <si>
-    <t>L-Glutamine</t>
-  </si>
-  <si>
-    <t>Glycine</t>
-  </si>
-  <si>
-    <t>L-Histidine</t>
-  </si>
-  <si>
-    <t>L-Isoleucine</t>
-  </si>
-  <si>
-    <t>L-Leucine</t>
-  </si>
-  <si>
-    <t>L-Lysine</t>
-  </si>
-  <si>
-    <t>L-Methionine</t>
-  </si>
-  <si>
-    <t>L-Phenylalanine</t>
-  </si>
-  <si>
-    <t>L-Proline</t>
-  </si>
-  <si>
-    <t>L-Serine</t>
-  </si>
-  <si>
-    <t>L-Threonine</t>
-  </si>
-  <si>
-    <t>L-Tryptophan</t>
-  </si>
-  <si>
-    <t>L-Tyrosine</t>
-  </si>
-  <si>
-    <t>L-Valine</t>
-  </si>
-  <si>
-    <t>D-Glucose</t>
-  </si>
-  <si>
-    <t>sn-Glycerol 3-phosphate</t>
-  </si>
-  <si>
-    <t>Lipid A disaccharide</t>
-  </si>
-  <si>
-    <t>Phosphonate</t>
-  </si>
-  <si>
-    <t>Acetate</t>
-  </si>
-  <si>
-    <t>Citrate</t>
-  </si>
-  <si>
-    <t>Formate</t>
-  </si>
-  <si>
-    <t>Pyruvate</t>
-  </si>
-  <si>
-    <t>Fumarate</t>
-  </si>
-  <si>
-    <t>Glutathione</t>
-  </si>
-  <si>
-    <t>4_Methyl_2_oxopentanoate</t>
-  </si>
-  <si>
-    <t>Pantothenate</t>
-  </si>
-  <si>
-    <t>Succinate</t>
-  </si>
-  <si>
-    <t>Thymidine</t>
-  </si>
-  <si>
-    <t>Xanthosine</t>
-  </si>
-  <si>
-    <t>4_Aminobenzoate</t>
-  </si>
-  <si>
-    <t>5_Methylthioadenosine</t>
-  </si>
-  <si>
-    <t>Adenine</t>
-  </si>
-  <si>
-    <t>Dethiobiotin</t>
-  </si>
-  <si>
-    <t>Guanine</t>
-  </si>
-  <si>
-    <t>Guanosine</t>
-  </si>
-  <si>
-    <t>Putrescine</t>
-  </si>
-  <si>
-    <t>Spermidine</t>
-  </si>
-  <si>
-    <t>4_Hydroxybenzoate</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>S_Malate/L-Malate</t>
-  </si>
-  <si>
-    <t>Hydrogen peroxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R  Acetoin C4H8O2</t>
-  </si>
-  <si>
-    <t>(R)-3-Hydroxybutanoate</t>
-  </si>
-  <si>
-    <t>(R)-Propane-1,2-diol</t>
-  </si>
-  <si>
-    <t>(S)-Propane-1,2-diol</t>
-  </si>
-  <si>
-    <t>10 Phenyldecanoic acid</t>
-  </si>
-  <si>
-    <t>1-Propanol</t>
-  </si>
-  <si>
-    <t>2 4 6 Trinitrotoluene</t>
-  </si>
-  <si>
-    <t>2,5-diketo-D-gluconate</t>
-  </si>
-  <si>
-    <t>2-Aminoethylphosphonate</t>
-  </si>
-  <si>
-    <t>3 Hydroxy 4 acetylthiobutanoic acid</t>
-  </si>
-  <si>
-    <t>3-Methylbutanoic acid</t>
-  </si>
-  <si>
-    <t>4-aminobenzoate-glutamate</t>
-  </si>
-  <si>
-    <t>4-Aminobutanoate</t>
-  </si>
-  <si>
-    <t>4-Hydroxybenzaldehyde</t>
-  </si>
-  <si>
-    <t>4-Hydroxybenzoate</t>
-  </si>
-  <si>
-    <t>4-Hydroxy-benzyl alcohol</t>
-  </si>
-  <si>
-    <t>5 phenylvaleric acid</t>
-  </si>
-  <si>
-    <t>5-Dehydro-D-gluconate</t>
-  </si>
-  <si>
-    <t>5'-deoxyribose</t>
-  </si>
-  <si>
-    <t>6 acetylthiohexanoic acid</t>
-  </si>
-  <si>
-    <t>6 Phenylhexanoic acid</t>
-  </si>
-  <si>
-    <t>7 Phenylheptanoic acid</t>
-  </si>
-  <si>
-    <t>8 Phenyloctanoic acid</t>
-  </si>
-  <si>
-    <t>9 Phenylnonanoic acid</t>
-  </si>
-  <si>
-    <t>Acetaldehyde</t>
-  </si>
-  <si>
-    <t>Acetoacetate</t>
-  </si>
-  <si>
-    <t>Adenosine</t>
-  </si>
-  <si>
-    <t>Ala L asp L C7H11N2O5</t>
-  </si>
-  <si>
-    <t>Ala L glu L C8H13N2O5</t>
-  </si>
-  <si>
-    <t>Ala-Gln</t>
-  </si>
-  <si>
-    <t>Ala-His</t>
-  </si>
-  <si>
-    <t>Ala-Leu</t>
-  </si>
-  <si>
-    <t>Ala-L-Thr-L</t>
-  </si>
-  <si>
-    <t>Allantoin</t>
-  </si>
-  <si>
-    <t>Arbutin 6-phosphate</t>
-  </si>
-  <si>
-    <t>Arbutin C12H16O7</t>
-  </si>
-  <si>
-    <t>Arsenate</t>
-  </si>
-  <si>
-    <t>Arsenite</t>
-  </si>
-  <si>
-    <t>Benzoate</t>
-  </si>
-  <si>
-    <t>Butanol</t>
-  </si>
-  <si>
-    <t>Butyrate (n-C4:0)</t>
-  </si>
-  <si>
-    <t>Cellobiose</t>
-  </si>
-  <si>
-    <t>Choline C5H14NO</t>
-  </si>
-  <si>
-    <t>Chorismate</t>
-  </si>
-  <si>
-    <t>Cys Gly C5H10N2O3S</t>
-  </si>
-  <si>
-    <t>Cytidine</t>
-  </si>
-  <si>
-    <t>Cytosine</t>
-  </si>
-  <si>
-    <t>D-Alanine</t>
-  </si>
-  <si>
-    <t>D-Alanyl-D-alanine</t>
-  </si>
-  <si>
-    <t>Decanoate (n-C10:0)</t>
-  </si>
-  <si>
-    <t>Deoxyadenosine</t>
-  </si>
-  <si>
-    <t>Deoxycytidine</t>
-  </si>
-  <si>
-    <t>Deoxyguanosine</t>
-  </si>
-  <si>
-    <t>Deoxyinosine</t>
-  </si>
-  <si>
-    <t>Deoxyribose C5H10O4</t>
-  </si>
-  <si>
-    <t>Deoxyuridine</t>
-  </si>
-  <si>
-    <t>Dextrin C12H20O10</t>
-  </si>
-  <si>
-    <t>D-Fructose</t>
-  </si>
-  <si>
-    <t>D-Galactose</t>
-  </si>
-  <si>
-    <t>D-Galacturonate</t>
-  </si>
-  <si>
-    <t>D-Gluconate</t>
-  </si>
-  <si>
-    <t>D-Glucosamine</t>
-  </si>
-  <si>
-    <t>D-Glucuronate</t>
-  </si>
-  <si>
-    <t>D-Glyceraldehyde</t>
-  </si>
-  <si>
-    <t>Diphosphate</t>
-  </si>
-  <si>
-    <t>D-Lactate</t>
-  </si>
-  <si>
-    <t>D-Mannitol</t>
-  </si>
-  <si>
-    <t>D-Mannose</t>
-  </si>
-  <si>
-    <t>D-Methionine</t>
-  </si>
-  <si>
-    <t>Dodecanoate (n-C12:0)</t>
-  </si>
-  <si>
-    <t>D-Ribose</t>
-  </si>
-  <si>
-    <t>D-Serine</t>
-  </si>
-  <si>
-    <t>D-Sorbitol</t>
-  </si>
-  <si>
-    <t>D-Xylose</t>
-  </si>
-  <si>
-    <t>Enterochelin</t>
-  </si>
-  <si>
-    <t>Ethanolamine</t>
-  </si>
-  <si>
-    <t>Fe(III)dicitrate</t>
-  </si>
-  <si>
-    <t>Fe-enterobactin</t>
-  </si>
-  <si>
-    <t>Ferrypyoverdine  P putida KT2440 specific</t>
-  </si>
-  <si>
-    <t>Formaldehyde</t>
-  </si>
-  <si>
-    <t>Galactitol</t>
-  </si>
-  <si>
-    <t>Gly asn L C6H11N3O4</t>
-  </si>
-  <si>
-    <t>Gly asp L C6H9N2O5</t>
-  </si>
-  <si>
-    <t>Gly glu L C7H11N2O5</t>
-  </si>
-  <si>
-    <t>Gly pro L C7H12N2O3</t>
-  </si>
-  <si>
-    <t>Glycerol</t>
-  </si>
-  <si>
-    <t>Glycerophosphoserine</t>
-  </si>
-  <si>
-    <t>Glycine betaine</t>
-  </si>
-  <si>
-    <t>Glycine-glycine-glutamine tripeptide</t>
-  </si>
-  <si>
-    <t>Glycol</t>
-  </si>
-  <si>
-    <t>Glycylglycine C4H8N2O3</t>
-  </si>
-  <si>
-    <t>Glycylphenylalanine</t>
-  </si>
-  <si>
-    <t>Gly-Cys</t>
-  </si>
-  <si>
-    <t>Gly-Gln</t>
-  </si>
-  <si>
-    <t>Gly-Leu</t>
-  </si>
-  <si>
-    <t>Gly-Met</t>
-  </si>
-  <si>
-    <t>Gly-Phe</t>
-  </si>
-  <si>
-    <t>Gly-Tyr</t>
-  </si>
-  <si>
-    <t>Heptanoate</t>
-  </si>
-  <si>
-    <t>Hexadecanoate (n-C16:0)</t>
-  </si>
-  <si>
-    <t>Hexadecenoate (n-C16:1)</t>
-  </si>
-  <si>
-    <t>Hexanoate (n-C6:0)</t>
-  </si>
-  <si>
-    <t>Hydrogen</t>
-  </si>
-  <si>
-    <t>Hydrogen cyanide</t>
-  </si>
-  <si>
-    <t>Hypoxanthine</t>
-  </si>
-  <si>
-    <t>Indole</t>
-  </si>
-  <si>
-    <t>Indole 3 acetaldehyde C10H9NO</t>
-  </si>
-  <si>
-    <t>Indole 3 acetate C10H8NO2</t>
-  </si>
-  <si>
-    <t>Inosine</t>
-  </si>
-  <si>
-    <t>Iron (Fe3+)</t>
-  </si>
-  <si>
-    <t>Iron bound extracellular staphyloferrin B</t>
-  </si>
-  <si>
-    <t>L alaninylhistidine</t>
-  </si>
-  <si>
-    <t>L alaninylleucine</t>
-  </si>
-  <si>
-    <t>L alaninylthreonine</t>
-  </si>
-  <si>
-    <t>L alaninyltryptophan</t>
-  </si>
-  <si>
-    <t>L Arabinitol C5H12O5</t>
-  </si>
-  <si>
-    <t>L glycinylglutamate</t>
-  </si>
-  <si>
-    <t>L glycinylglutamine</t>
-  </si>
-  <si>
-    <t>L Glycinylmethionine</t>
-  </si>
-  <si>
-    <t>L glycinylserine</t>
-  </si>
-  <si>
-    <t>L histidinylglycine</t>
-  </si>
-  <si>
-    <t>L histidinylhistidine</t>
-  </si>
-  <si>
-    <t>L Methionine S oxide C5H11NO3S</t>
-  </si>
-  <si>
-    <t>Lactose C12H22O11</t>
-  </si>
-  <si>
-    <t>L-alanine-L-glutamate</t>
-  </si>
-  <si>
-    <t>L-alanylglycine</t>
-  </si>
-  <si>
-    <t>L-Arabinose</t>
-  </si>
-  <si>
-    <t>L-Carnitine</t>
-  </si>
-  <si>
-    <t>L-Cysteine</t>
-  </si>
-  <si>
-    <t>Leucylleucine</t>
-  </si>
-  <si>
-    <t>L-Fucose</t>
-  </si>
-  <si>
-    <t>Linoleic acid (all cis C18:2) n-6</t>
-  </si>
-  <si>
-    <t>L-Lactate</t>
-  </si>
-  <si>
-    <t>L-Prolinylglycine</t>
-  </si>
-  <si>
-    <t>Lysine-glutamine-glycine tripeptide</t>
-  </si>
-  <si>
-    <t>Maltohexaose</t>
-  </si>
-  <si>
-    <t>Maltose C12H22O11</t>
-  </si>
-  <si>
-    <t>Manganese</t>
-  </si>
-  <si>
-    <t>Melibiose C12H22O11</t>
-  </si>
-  <si>
-    <t>Met L ala L C8H16N2O3S</t>
-  </si>
-  <si>
-    <t>M-Xylene</t>
-  </si>
-  <si>
-    <t>Myo-Inositol</t>
-  </si>
-  <si>
-    <t>N  2 methyl 3 5 dinitrophenyl  4 methyl 3 5 dinitroaniline</t>
-  </si>
-  <si>
-    <t>N N bis 3 5 dinitrotolyl  amine</t>
-  </si>
-  <si>
-    <t>N-Acetyl-D-glucosamine</t>
-  </si>
-  <si>
-    <t>N-Acetyl-D-mannosamine</t>
-  </si>
-  <si>
-    <t>Nicotinamide</t>
-  </si>
-  <si>
-    <t>Nitrate</t>
-  </si>
-  <si>
-    <t>Nitrite</t>
-  </si>
-  <si>
-    <t>Nonanoate C9H17O2</t>
-  </si>
-  <si>
-    <t>Octadecanoate (n-C18:0)</t>
-  </si>
-  <si>
-    <t>Octadecenoate (n-C18:1)</t>
-  </si>
-  <si>
-    <t>Octanoate (n-C8:0)</t>
-  </si>
-  <si>
-    <t>Ornithine</t>
-  </si>
-  <si>
-    <t>Oxalate</t>
-  </si>
-  <si>
-    <t>Pentanoate</t>
-  </si>
-  <si>
-    <t>Petroselaidic acid</t>
-  </si>
-  <si>
-    <t>Phenylacetaldehyde</t>
-  </si>
-  <si>
-    <t>Phenylethyl alcohol</t>
-  </si>
-  <si>
-    <t>Pimelate</t>
-  </si>
-  <si>
-    <t>P-methyltoluene</t>
-  </si>
-  <si>
-    <t>Propionate (n-C3:0)</t>
-  </si>
-  <si>
-    <t>Protoheme C34H30FeN4O4</t>
-  </si>
-  <si>
-    <t>Pyoverdine  P putida specific</t>
-  </si>
-  <si>
-    <t>Raffinose C18H32O16</t>
-  </si>
-  <si>
-    <t>Reduced glutathione</t>
-  </si>
-  <si>
-    <t>Salmochelin-S2</t>
-  </si>
-  <si>
-    <t>Salmochelin-S4-Fe-III</t>
-  </si>
-  <si>
-    <t>Selenite</t>
-  </si>
-  <si>
-    <t>Serine-glutamine-glycine tripeptide</t>
-  </si>
-  <si>
-    <t>Siroheme C42H36FeN4O16</t>
-  </si>
-  <si>
-    <t>Sn-Glycero-3-phospho-1-inositol</t>
-  </si>
-  <si>
-    <t>Sn-Glycero-3-phosphocholine</t>
-  </si>
-  <si>
-    <t>Sn-Glycero-3-phosphoethanolamine</t>
-  </si>
-  <si>
-    <t>Staphyloferrin B</t>
-  </si>
-  <si>
-    <t>Starch C12H20O10</t>
-  </si>
-  <si>
-    <t>Sucrose C12H22O11</t>
-  </si>
-  <si>
-    <t>Sulfite</t>
-  </si>
-  <si>
-    <t>Sulfur</t>
-  </si>
-  <si>
-    <t>Tetradecanoate (n-C14:0)</t>
-  </si>
-  <si>
-    <t>Tetradecenoate (n-C14:1)</t>
-  </si>
-  <si>
-    <t>Thiocyanate</t>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Ca2+</t>
+  </si>
+  <si>
+    <t>Cl-</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Molybdenum</t>
+  </si>
+  <si>
+    <t>K+</t>
+  </si>
+  <si>
+    <t>Acetate[e]</t>
+  </si>
+  <si>
+    <t>Citrate[e]</t>
+  </si>
+  <si>
+    <t>Formate[e]</t>
+  </si>
+  <si>
+    <t>Pyruvate[e]</t>
+  </si>
+  <si>
+    <t>Fumarate[e]</t>
+  </si>
+  <si>
+    <t>Glutathione[e]</t>
+  </si>
+  <si>
+    <t>4_Methyl_2_oxopentanoate[e]</t>
+  </si>
+  <si>
+    <t>Pantothenate[e]</t>
+  </si>
+  <si>
+    <t>Succinate[e]</t>
+  </si>
+  <si>
+    <t>Thymidine[e]</t>
+  </si>
+  <si>
+    <t>Xanthosine[e]</t>
+  </si>
+  <si>
+    <t>4_Aminobenzoate[e]</t>
+  </si>
+  <si>
+    <t>5_Methylthioadenosine[e]</t>
+  </si>
+  <si>
+    <t>Adenine[e]</t>
+  </si>
+  <si>
+    <t>Dethiobiotin[e]</t>
+  </si>
+  <si>
+    <t>Guanine[e]</t>
+  </si>
+  <si>
+    <t>Guanosine[e]</t>
+  </si>
+  <si>
+    <t>Putrescine[e]</t>
+  </si>
+  <si>
+    <t>Spermidine[e]</t>
+  </si>
+  <si>
+    <t>4_Hydroxybenzoate[e]</t>
+  </si>
+  <si>
+    <t>Ethanol[e]</t>
+  </si>
+  <si>
+    <t>S_Malate[e]</t>
+  </si>
+  <si>
+    <t>Ammonium</t>
+  </si>
+  <si>
+    <t>CO2 CO2</t>
+  </si>
+  <si>
+    <t>Co2+</t>
+  </si>
+  <si>
+    <t>Phosphate</t>
+  </si>
+  <si>
+    <t>H2O H2O</t>
+  </si>
+  <si>
+    <t>Fe2+ mitochondria</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Molybdate</t>
+  </si>
+  <si>
+    <t>O2 O2</t>
+  </si>
+  <si>
+    <t>Urea CH4N2O</t>
+  </si>
+  <si>
+    <t>Zinc</t>
   </si>
   <si>
     <t>Thymidine C10H14N2O5</t>
   </si>
   <si>
-    <t>Thymine C5H6N2O2</t>
-  </si>
-  <si>
-    <t>Toluene</t>
-  </si>
-  <si>
-    <t>Trans-Cinnamate</t>
-  </si>
-  <si>
-    <t>Trehalose</t>
-  </si>
-  <si>
-    <t>Undecaprenyl diphosphate</t>
-  </si>
-  <si>
-    <t>Undecaprenyl phosphate</t>
-  </si>
-  <si>
-    <t>Uracil</t>
-  </si>
-  <si>
-    <t>Uridine</t>
-  </si>
-  <si>
-    <t>Xanthine</t>
-  </si>
-  <si>
-    <t>Ammonia</t>
-  </si>
-  <si>
-    <t>Ca2+</t>
-  </si>
-  <si>
-    <t>Cl-</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Molybdenum</t>
-  </si>
-  <si>
-    <t>K+</t>
-  </si>
-  <si>
-    <t>Acetate[e]</t>
-  </si>
-  <si>
-    <t>Citrate[e]</t>
-  </si>
-  <si>
-    <t>Formate[e]</t>
-  </si>
-  <si>
-    <t>Pyruvate[e]</t>
-  </si>
-  <si>
-    <t>Fumarate[e]</t>
-  </si>
-  <si>
-    <t>Glutathione[e]</t>
-  </si>
-  <si>
-    <t>4_Methyl_2_oxopentanoate[e]</t>
-  </si>
-  <si>
-    <t>Pantothenate[e]</t>
-  </si>
-  <si>
-    <t>Succinate[e]</t>
-  </si>
-  <si>
-    <t>Thymidine[e]</t>
-  </si>
-  <si>
-    <t>Xanthosine[e]</t>
-  </si>
-  <si>
-    <t>4_Aminobenzoate[e]</t>
-  </si>
-  <si>
-    <t>5_Methylthioadenosine[e]</t>
-  </si>
-  <si>
-    <t>Adenine[e]</t>
-  </si>
-  <si>
-    <t>Dethiobiotin[e]</t>
-  </si>
-  <si>
-    <t>Guanine[e]</t>
-  </si>
-  <si>
-    <t>Guanosine[e]</t>
-  </si>
-  <si>
-    <t>Putrescine[e]</t>
-  </si>
-  <si>
-    <t>Spermidine[e]</t>
-  </si>
-  <si>
-    <t>4_Hydroxybenzoate[e]</t>
-  </si>
-  <si>
-    <t>Ethanol[e]</t>
-  </si>
-  <si>
-    <t>S_Malate[e]</t>
-  </si>
-  <si>
-    <t>Ammonium</t>
-  </si>
-  <si>
-    <t>CO2 CO2</t>
-  </si>
-  <si>
-    <t>Co2+</t>
-  </si>
-  <si>
-    <t>Phosphate</t>
-  </si>
-  <si>
-    <t>H2O H2O</t>
-  </si>
-  <si>
-    <t>Fe2+ mitochondria</t>
-  </si>
-  <si>
-    <t>Magnesium</t>
-  </si>
-  <si>
-    <t>Molybdate</t>
-  </si>
-  <si>
-    <t>O2 O2</t>
-  </si>
-  <si>
-    <t>Urea CH4N2O</t>
-  </si>
-  <si>
-    <t>Zinc</t>
-  </si>
-  <si>
     <t>L-Malate</t>
   </si>
   <si>
@@ -1351,9 +1390,6 @@
     <t>EX_meoh_e</t>
   </si>
   <si>
-    <t>EX_nac_e</t>
-  </si>
-  <si>
     <t>EX_nh4_e</t>
   </si>
   <si>
@@ -1375,6 +1411,9 @@
     <t>EX_co_e</t>
   </si>
   <si>
+    <t>EX_cynt_e</t>
+  </si>
+  <si>
     <t>EX_pi_e</t>
   </si>
   <si>
@@ -1453,24 +1492,12 @@
     <t>EX_met__L_e</t>
   </si>
   <si>
-    <t>EX_phe__L_e</t>
-  </si>
-  <si>
     <t>EX_pro__L_e</t>
   </si>
   <si>
     <t>EX_ser__L_e</t>
   </si>
   <si>
-    <t>EX_thr__L_e</t>
-  </si>
-  <si>
-    <t>EX_trp__L_e</t>
-  </si>
-  <si>
-    <t>EX_tyr__L_e</t>
-  </si>
-  <si>
     <t>EX_val__L_e</t>
   </si>
   <si>
@@ -1495,6 +1522,9 @@
     <t>EX_succ_e</t>
   </si>
   <si>
+    <t>EX_thymd_e</t>
+  </si>
+  <si>
     <t>EX_xtsn_e</t>
   </si>
   <si>
@@ -1504,598 +1534,625 @@
     <t>EX_gua_e</t>
   </si>
   <si>
-    <t>EX_gsn_e</t>
-  </si>
-  <si>
     <t>EX_ptrc_e</t>
   </si>
   <si>
     <t>EX_spmd_e</t>
   </si>
   <si>
+    <t>EX_4hbz_e</t>
+  </si>
+  <si>
     <t>EX_etoh_e</t>
   </si>
   <si>
+    <t>EX_h2o2_e</t>
+  </si>
+  <si>
+    <t>EX_14glucan_e</t>
+  </si>
+  <si>
+    <t>EX_25dkglcn_e</t>
+  </si>
+  <si>
+    <t>EX_2ameph_e</t>
+  </si>
+  <si>
+    <t>EX_2m35mdntha_e</t>
+  </si>
+  <si>
+    <t>EX_2pglyc_e</t>
+  </si>
+  <si>
+    <t>EX_35dnta_e</t>
+  </si>
+  <si>
+    <t>EX_3h4atb_e</t>
+  </si>
+  <si>
+    <t>EX_3mb_e</t>
+  </si>
+  <si>
+    <t>EX_4hba_e</t>
+  </si>
+  <si>
+    <t>EX_4hbald_e</t>
+  </si>
+  <si>
+    <t>EX_4hphac_e</t>
+  </si>
+  <si>
+    <t>EX_5dglcn_e</t>
+  </si>
+  <si>
+    <t>EX_5drib_e</t>
+  </si>
+  <si>
+    <t>EX_5mdru1p_e</t>
+  </si>
+  <si>
+    <t>EX_6atha_e</t>
+  </si>
+  <si>
+    <t>EX_LalaLglu_e</t>
+  </si>
+  <si>
+    <t>EX_abg4_e</t>
+  </si>
+  <si>
+    <t>EX_abt_e</t>
+  </si>
+  <si>
+    <t>EX_acac_e</t>
+  </si>
+  <si>
+    <t>EX_acald_e</t>
+  </si>
+  <si>
+    <t>EX_acgam_e</t>
+  </si>
+  <si>
+    <t>EX_acmana_e</t>
+  </si>
+  <si>
+    <t>EX_actn__R_e</t>
+  </si>
+  <si>
+    <t>EX_adn_e</t>
+  </si>
+  <si>
+    <t>EX_ala_L_asp__L_e</t>
+  </si>
+  <si>
+    <t>EX_ala_L_glu__L_e</t>
+  </si>
+  <si>
+    <t>EX_ala_L_thr__L_e</t>
+  </si>
+  <si>
+    <t>EX_ala__D_e</t>
+  </si>
+  <si>
+    <t>EX_ala_gln_e</t>
+  </si>
+  <si>
+    <t>EX_ala_his_e</t>
+  </si>
+  <si>
+    <t>EX_ala_leu_e</t>
+  </si>
+  <si>
+    <t>EX_alagly_e</t>
+  </si>
+  <si>
+    <t>EX_alahis_e</t>
+  </si>
+  <si>
+    <t>EX_alaleu_e</t>
+  </si>
+  <si>
+    <t>EX_alathr_e</t>
+  </si>
+  <si>
+    <t>EX_alatrp_e</t>
+  </si>
+  <si>
+    <t>EX_alltn_e</t>
+  </si>
+  <si>
+    <t>EX_arab__L_e</t>
+  </si>
+  <si>
+    <t>EX_arbt6p_e</t>
+  </si>
+  <si>
+    <t>EX_arbt_e</t>
+  </si>
+  <si>
+    <t>EX_ascb__L_e</t>
+  </si>
+  <si>
+    <t>EX_aso3_e</t>
+  </si>
+  <si>
+    <t>EX_aso4_e</t>
+  </si>
+  <si>
+    <t>EX_bhb_e</t>
+  </si>
+  <si>
+    <t>EX_but_e</t>
+  </si>
+  <si>
+    <t>EX_bz_e</t>
+  </si>
+  <si>
+    <t>EX_cellb_e</t>
+  </si>
+  <si>
+    <t>EX_cgly_e</t>
+  </si>
+  <si>
+    <t>EX_chol_e</t>
+  </si>
+  <si>
+    <t>EX_chols_e</t>
+  </si>
+  <si>
+    <t>EX_chtbs_e</t>
+  </si>
+  <si>
+    <t>EX_cinnm_e</t>
+  </si>
+  <si>
+    <t>EX_crn_e</t>
+  </si>
+  <si>
+    <t>EX_csn_e</t>
+  </si>
+  <si>
+    <t>EX_cyan_e</t>
+  </si>
+  <si>
+    <t>EX_cys__L_e</t>
+  </si>
+  <si>
+    <t>EX_cytd_e</t>
+  </si>
+  <si>
+    <t>EX_dad_2_e</t>
+  </si>
+  <si>
+    <t>EX_dca_e</t>
+  </si>
+  <si>
+    <t>EX_dcyt_e</t>
+  </si>
+  <si>
+    <t>EX_ddca_e</t>
+  </si>
+  <si>
+    <t>EX_dextrin_e</t>
+  </si>
+  <si>
+    <t>EX_dgsn_e</t>
+  </si>
+  <si>
+    <t>EX_din_e</t>
+  </si>
+  <si>
+    <t>EX_drib_e</t>
+  </si>
+  <si>
+    <t>EX_duri_e</t>
+  </si>
+  <si>
+    <t>EX_enter_e</t>
+  </si>
+  <si>
+    <t>EX_etha_e</t>
+  </si>
+  <si>
+    <t>EX_fald_e</t>
+  </si>
+  <si>
+    <t>EX_fe3_e</t>
+  </si>
+  <si>
+    <t>EX_fe3dcit_e</t>
+  </si>
+  <si>
+    <t>EX_fe3pyovd_kt_e</t>
+  </si>
+  <si>
+    <t>EX_feenter_e</t>
+  </si>
+  <si>
+    <t>EX_feoxam_e</t>
+  </si>
+  <si>
+    <t>EX_feoxam_un_e</t>
+  </si>
+  <si>
+    <t>EX_fru_e</t>
+  </si>
+  <si>
+    <t>EX_fuc__L_e</t>
+  </si>
+  <si>
+    <t>EX_g3pc_e</t>
+  </si>
+  <si>
+    <t>EX_g3pe_e</t>
+  </si>
+  <si>
+    <t>EX_g3pg_e</t>
+  </si>
+  <si>
+    <t>EX_g3pi_e</t>
+  </si>
+  <si>
+    <t>EX_g3ps_e</t>
+  </si>
+  <si>
+    <t>EX_gal_bD_e</t>
+  </si>
+  <si>
+    <t>EX_gal_e</t>
+  </si>
+  <si>
+    <t>EX_galt_e</t>
+  </si>
+  <si>
+    <t>EX_galur_e</t>
+  </si>
+  <si>
+    <t>EX_gam_e</t>
+  </si>
+  <si>
+    <t>EX_glcur_e</t>
+  </si>
+  <si>
+    <t>EX_gly_asn__L_e</t>
+  </si>
+  <si>
+    <t>EX_gly_asp__L_e</t>
+  </si>
+  <si>
+    <t>EX_gly_cys_e</t>
+  </si>
+  <si>
+    <t>EX_gly_gln_e</t>
+  </si>
+  <si>
+    <t>EX_gly_glu__L_e</t>
+  </si>
+  <si>
+    <t>EX_gly_leu_e</t>
+  </si>
+  <si>
+    <t>EX_gly_met_e</t>
+  </si>
+  <si>
+    <t>EX_gly_phe_e</t>
+  </si>
+  <si>
+    <t>EX_gly_pro__L_e</t>
+  </si>
+  <si>
+    <t>EX_gly_tyr_e</t>
+  </si>
+  <si>
+    <t>EX_glyb_e</t>
+  </si>
+  <si>
+    <t>EX_glyc2p_e</t>
+  </si>
+  <si>
+    <t>EX_glyc3p_e</t>
+  </si>
+  <si>
+    <t>EX_glyc_e</t>
+  </si>
+  <si>
+    <t>EX_glycol_e</t>
+  </si>
+  <si>
+    <t>EX_glygln_e</t>
+  </si>
+  <si>
+    <t>EX_glyglu_e</t>
+  </si>
+  <si>
+    <t>EX_glygly_e</t>
+  </si>
+  <si>
+    <t>EX_glyglygln_e</t>
+  </si>
+  <si>
+    <t>EX_glymet_e</t>
+  </si>
+  <si>
+    <t>EX_glyphe_e</t>
+  </si>
+  <si>
+    <t>EX_glyser_e</t>
+  </si>
+  <si>
+    <t>EX_gthrd_e</t>
+  </si>
+  <si>
+    <t>EX_h2_e</t>
+  </si>
+  <si>
+    <t>EX_hco3_e</t>
+  </si>
+  <si>
+    <t>EX_hdca_e</t>
+  </si>
+  <si>
+    <t>EX_hdcea_e</t>
+  </si>
+  <si>
+    <t>EX_hisgly_e</t>
+  </si>
+  <si>
+    <t>EX_hishis_e</t>
+  </si>
+  <si>
+    <t>EX_hom__L_e</t>
+  </si>
+  <si>
+    <t>EX_hpta_e</t>
+  </si>
+  <si>
+    <t>EX_hxa_e</t>
+  </si>
+  <si>
+    <t>EX_hxan_e</t>
+  </si>
+  <si>
+    <t>EX_ibt_e</t>
+  </si>
+  <si>
+    <t>EX_idon__L_e</t>
+  </si>
+  <si>
+    <t>EX_ind3ac_e</t>
+  </si>
+  <si>
+    <t>EX_indole_e</t>
+  </si>
+  <si>
+    <t>EX_inost_e</t>
+  </si>
+  <si>
+    <t>EX_ins_e</t>
+  </si>
+  <si>
+    <t>EX_istfrnB_e</t>
+  </si>
+  <si>
+    <t>EX_lac__D_e</t>
+  </si>
+  <si>
+    <t>EX_lac__L_e</t>
+  </si>
+  <si>
+    <t>EX_lcts_e</t>
+  </si>
+  <si>
+    <t>EX_leuleu_e</t>
+  </si>
+  <si>
+    <t>EX_lnlc_e</t>
+  </si>
+  <si>
+    <t>EX_lysglugly_e</t>
+  </si>
+  <si>
+    <t>EX_m_xyl_e</t>
+  </si>
+  <si>
     <t>EX_mal__L_e</t>
   </si>
   <si>
-    <t>EX_h2o2_e</t>
-  </si>
-  <si>
-    <t>EX_actn__R_e</t>
-  </si>
-  <si>
-    <t>EX_bhb_e</t>
-  </si>
-  <si>
-    <t>EX_12ppd__R_e</t>
-  </si>
-  <si>
-    <t>EX_12ppd__S_e</t>
+    <t>EX_malt_e</t>
+  </si>
+  <si>
+    <t>EX_maltpt_e</t>
+  </si>
+  <si>
+    <t>EX_man_e</t>
+  </si>
+  <si>
+    <t>EX_melib_e</t>
+  </si>
+  <si>
+    <t>EX_met_L_ala__L_e</t>
+  </si>
+  <si>
+    <t>EX_met__D_e</t>
+  </si>
+  <si>
+    <t>EX_mn2_e</t>
+  </si>
+  <si>
+    <t>EX_mnl_e</t>
+  </si>
+  <si>
+    <t>EX_mththf_e</t>
+  </si>
+  <si>
+    <t>EX_nmn_e</t>
+  </si>
+  <si>
+    <t>EX_no2_e</t>
+  </si>
+  <si>
+    <t>EX_no3_e</t>
+  </si>
+  <si>
+    <t>EX_nona_e</t>
+  </si>
+  <si>
+    <t>EX_ocdca_e</t>
+  </si>
+  <si>
+    <t>EX_ocdcea_e</t>
+  </si>
+  <si>
+    <t>EX_octa_e</t>
+  </si>
+  <si>
+    <t>EX_orn_e</t>
+  </si>
+  <si>
+    <t>EX_oxa_e</t>
+  </si>
+  <si>
+    <t>EX_p_xyl_e</t>
+  </si>
+  <si>
+    <t>EX_pacald_e</t>
+  </si>
+  <si>
+    <t>EX_pea_e</t>
+  </si>
+  <si>
+    <t>EX_peamn_e</t>
   </si>
   <si>
     <t>EX_phedca_e</t>
   </si>
   <si>
+    <t>EX_phehpa_e</t>
+  </si>
+  <si>
+    <t>EX_phehxa_e</t>
+  </si>
+  <si>
+    <t>EX_pheme_e</t>
+  </si>
+  <si>
+    <t>EX_phenona_e</t>
+  </si>
+  <si>
+    <t>EX_pheocta_e</t>
+  </si>
+  <si>
+    <t>EX_phept_e</t>
+  </si>
+  <si>
+    <t>EX_pime_e</t>
+  </si>
+  <si>
+    <t>EX_ppa_e</t>
+  </si>
+  <si>
+    <t>EX_ppi_e</t>
+  </si>
+  <si>
     <t>EX_ppoh_e</t>
   </si>
   <si>
+    <t>EX_progly_e</t>
+  </si>
+  <si>
+    <t>EX_pta_e</t>
+  </si>
+  <si>
+    <t>EX_ptsla_e</t>
+  </si>
+  <si>
+    <t>EX_pyovd_kt_e</t>
+  </si>
+  <si>
+    <t>EX_quin_e</t>
+  </si>
+  <si>
+    <t>EX_raffin_e</t>
+  </si>
+  <si>
+    <t>EX_rib__D_e</t>
+  </si>
+  <si>
+    <t>EX_s_e</t>
+  </si>
+  <si>
+    <t>EX_salchs4_e</t>
+  </si>
+  <si>
+    <t>EX_salchs4fe_e</t>
+  </si>
+  <si>
+    <t>EX_sbt__D_e</t>
+  </si>
+  <si>
+    <t>EX_serglugly_e</t>
+  </si>
+  <si>
+    <t>EX_sheme_e</t>
+  </si>
+  <si>
+    <t>EX_slnt_e</t>
+  </si>
+  <si>
+    <t>EX_so3_e</t>
+  </si>
+  <si>
+    <t>EX_starch_e</t>
+  </si>
+  <si>
+    <t>EX_stfrnB_e</t>
+  </si>
+  <si>
+    <t>EX_sucr_e</t>
+  </si>
+  <si>
+    <t>EX_tcynt_e</t>
+  </si>
+  <si>
+    <t>EX_thm_e</t>
+  </si>
+  <si>
+    <t>EX_thym_e</t>
+  </si>
+  <si>
     <t>EX_tnt_e</t>
   </si>
   <si>
-    <t>EX_25dkglcn_e</t>
-  </si>
-  <si>
-    <t>EX_2ameph_e</t>
-  </si>
-  <si>
-    <t>EX_3h4atb_e</t>
-  </si>
-  <si>
-    <t>EX_3mb_e</t>
-  </si>
-  <si>
-    <t>EX_abg4_e</t>
-  </si>
-  <si>
-    <t>EX_4abut_e</t>
-  </si>
-  <si>
-    <t>EX_4hbald_e</t>
-  </si>
-  <si>
-    <t>EX_4hbz_e</t>
-  </si>
-  <si>
-    <t>EX_4hba_e</t>
-  </si>
-  <si>
-    <t>EX_phept_e</t>
-  </si>
-  <si>
-    <t>EX_5dglcn_e</t>
-  </si>
-  <si>
-    <t>EX_5drib_e</t>
-  </si>
-  <si>
-    <t>EX_6atha_e</t>
-  </si>
-  <si>
-    <t>EX_phehxa_e</t>
-  </si>
-  <si>
-    <t>EX_phehpa_e</t>
-  </si>
-  <si>
-    <t>EX_pheocta_e</t>
-  </si>
-  <si>
-    <t>EX_phenona_e</t>
-  </si>
-  <si>
-    <t>EX_acald_e</t>
-  </si>
-  <si>
-    <t>EX_acac_e</t>
-  </si>
-  <si>
-    <t>EX_adn_e</t>
-  </si>
-  <si>
-    <t>EX_ala_L_asp__L_e</t>
-  </si>
-  <si>
-    <t>EX_ala_L_glu__L_e</t>
-  </si>
-  <si>
-    <t>EX_ala_gln_e</t>
-  </si>
-  <si>
-    <t>EX_ala_his_e</t>
-  </si>
-  <si>
-    <t>EX_ala_leu_e</t>
-  </si>
-  <si>
-    <t>EX_ala_L_thr__L_e</t>
-  </si>
-  <si>
-    <t>EX_alltn_e</t>
-  </si>
-  <si>
-    <t>EX_arbt6p_e</t>
-  </si>
-  <si>
-    <t>EX_arbt_e</t>
-  </si>
-  <si>
-    <t>EX_aso4_e</t>
-  </si>
-  <si>
-    <t>EX_aso3_e</t>
-  </si>
-  <si>
-    <t>EX_bz_e</t>
-  </si>
-  <si>
-    <t>EX_btoh_e</t>
-  </si>
-  <si>
-    <t>EX_but_e</t>
-  </si>
-  <si>
-    <t>EX_cellb_e</t>
-  </si>
-  <si>
-    <t>EX_chol_e</t>
-  </si>
-  <si>
-    <t>EX_chor_e</t>
-  </si>
-  <si>
-    <t>EX_cgly_e</t>
-  </si>
-  <si>
-    <t>EX_cytd_e</t>
-  </si>
-  <si>
-    <t>EX_csn_e</t>
-  </si>
-  <si>
-    <t>EX_ala__D_e</t>
-  </si>
-  <si>
-    <t>EX_alaala_e</t>
-  </si>
-  <si>
-    <t>EX_dca_e</t>
-  </si>
-  <si>
-    <t>EX_dad_2_e</t>
-  </si>
-  <si>
-    <t>EX_dcyt_e</t>
-  </si>
-  <si>
-    <t>EX_dgsn_e</t>
-  </si>
-  <si>
-    <t>EX_din_e</t>
-  </si>
-  <si>
-    <t>EX_drib_e</t>
-  </si>
-  <si>
-    <t>EX_duri_e</t>
-  </si>
-  <si>
-    <t>EX_dextrin_e</t>
-  </si>
-  <si>
-    <t>EX_fru_e</t>
-  </si>
-  <si>
-    <t>EX_gal_e</t>
-  </si>
-  <si>
-    <t>EX_galur_e</t>
-  </si>
-  <si>
-    <t>EX_glcn_e</t>
-  </si>
-  <si>
-    <t>EX_gam_e</t>
-  </si>
-  <si>
-    <t>EX_glcur_e</t>
-  </si>
-  <si>
-    <t>EX_glyald_e</t>
-  </si>
-  <si>
-    <t>EX_ppi_e</t>
-  </si>
-  <si>
-    <t>EX_lac__D_e</t>
-  </si>
-  <si>
-    <t>EX_mnl_e</t>
-  </si>
-  <si>
-    <t>EX_man_e</t>
-  </si>
-  <si>
-    <t>EX_met__D_e</t>
-  </si>
-  <si>
-    <t>EX_ddca_e</t>
-  </si>
-  <si>
-    <t>EX_rib__D_e</t>
-  </si>
-  <si>
-    <t>EX_ser__D_e</t>
-  </si>
-  <si>
-    <t>EX_sbt__D_e</t>
+    <t>EX_tol_e</t>
+  </si>
+  <si>
+    <t>EX_tre_e</t>
+  </si>
+  <si>
+    <t>EX_ttdca_e</t>
+  </si>
+  <si>
+    <t>EX_ttdcea_e</t>
+  </si>
+  <si>
+    <t>EX_udcpdp_e</t>
+  </si>
+  <si>
+    <t>EX_udcpp_e</t>
+  </si>
+  <si>
+    <t>EX_ura_e</t>
+  </si>
+  <si>
+    <t>EX_uri_e</t>
+  </si>
+  <si>
+    <t>EX_vanlt_e</t>
+  </si>
+  <si>
+    <t>EX_xan_e</t>
   </si>
   <si>
     <t>EX_xyl__D_e</t>
-  </si>
-  <si>
-    <t>EX_enter_e</t>
-  </si>
-  <si>
-    <t>EX_etha_e</t>
-  </si>
-  <si>
-    <t>EX_fe3dcit_e</t>
-  </si>
-  <si>
-    <t>EX_feenter_e</t>
-  </si>
-  <si>
-    <t>EX_fe3pyovd_kt_e</t>
-  </si>
-  <si>
-    <t>EX_fald_e</t>
-  </si>
-  <si>
-    <t>EX_galt_e</t>
-  </si>
-  <si>
-    <t>EX_gly_asn__L_e</t>
-  </si>
-  <si>
-    <t>EX_gly_asp__L_e</t>
-  </si>
-  <si>
-    <t>EX_gly_glu__L_e</t>
-  </si>
-  <si>
-    <t>EX_gly_pro__L_e</t>
-  </si>
-  <si>
-    <t>EX_glyc_e</t>
-  </si>
-  <si>
-    <t>EX_g3ps_e</t>
-  </si>
-  <si>
-    <t>EX_glyb_e</t>
-  </si>
-  <si>
-    <t>EX_glyglygln_e</t>
-  </si>
-  <si>
-    <t>EX_glycol_e</t>
-  </si>
-  <si>
-    <t>EX_glygly_e</t>
-  </si>
-  <si>
-    <t>EX_glyphe_e</t>
-  </si>
-  <si>
-    <t>EX_gly_cys_e</t>
-  </si>
-  <si>
-    <t>EX_gly_gln_e</t>
-  </si>
-  <si>
-    <t>EX_gly_leu_e</t>
-  </si>
-  <si>
-    <t>EX_gly_met_e</t>
-  </si>
-  <si>
-    <t>EX_gly_phe_e</t>
-  </si>
-  <si>
-    <t>EX_gly_tyr_e</t>
-  </si>
-  <si>
-    <t>EX_hpta_e</t>
-  </si>
-  <si>
-    <t>EX_hdca_e</t>
-  </si>
-  <si>
-    <t>EX_hdcea_e</t>
-  </si>
-  <si>
-    <t>EX_hxa_e</t>
-  </si>
-  <si>
-    <t>EX_h2_e</t>
-  </si>
-  <si>
-    <t>EX_cyan_e</t>
-  </si>
-  <si>
-    <t>EX_hxan_e</t>
-  </si>
-  <si>
-    <t>EX_indole_e</t>
-  </si>
-  <si>
-    <t>EX_id3acald_e</t>
-  </si>
-  <si>
-    <t>EX_ind3ac_e</t>
-  </si>
-  <si>
-    <t>EX_ins_e</t>
-  </si>
-  <si>
-    <t>EX_fe3_e</t>
-  </si>
-  <si>
-    <t>EX_istfrnB_e</t>
-  </si>
-  <si>
-    <t>EX_alahis_e</t>
-  </si>
-  <si>
-    <t>EX_alaleu_e</t>
-  </si>
-  <si>
-    <t>EX_alathr_e</t>
-  </si>
-  <si>
-    <t>EX_alatrp_e</t>
-  </si>
-  <si>
-    <t>EX_abt_e</t>
-  </si>
-  <si>
-    <t>EX_glyglu_e</t>
-  </si>
-  <si>
-    <t>EX_glygln_e</t>
-  </si>
-  <si>
-    <t>EX_glymet_e</t>
-  </si>
-  <si>
-    <t>EX_glyser_e</t>
-  </si>
-  <si>
-    <t>EX_hisgly_e</t>
-  </si>
-  <si>
-    <t>EX_hishis_e</t>
-  </si>
-  <si>
-    <t>EX_metox_e</t>
-  </si>
-  <si>
-    <t>EX_lcts_e</t>
-  </si>
-  <si>
-    <t>EX_LalaLglu_e</t>
-  </si>
-  <si>
-    <t>EX_alagly_e</t>
-  </si>
-  <si>
-    <t>EX_arab__L_e</t>
-  </si>
-  <si>
-    <t>EX_crn_e</t>
-  </si>
-  <si>
-    <t>EX_cys__L_e</t>
-  </si>
-  <si>
-    <t>EX_leuleu_e</t>
-  </si>
-  <si>
-    <t>EX_fuc__L_e</t>
-  </si>
-  <si>
-    <t>EX_lnlc_e</t>
-  </si>
-  <si>
-    <t>EX_lac__L_e</t>
-  </si>
-  <si>
-    <t>EX_progly_e</t>
-  </si>
-  <si>
-    <t>EX_lysglugly_e</t>
-  </si>
-  <si>
-    <t>EX_malthx_e</t>
-  </si>
-  <si>
-    <t>EX_malt_e</t>
-  </si>
-  <si>
-    <t>EX_mn2_e</t>
-  </si>
-  <si>
-    <t>EX_melib_e</t>
-  </si>
-  <si>
-    <t>EX_met_L_ala__L_e</t>
-  </si>
-  <si>
-    <t>EX_m_xyl_e</t>
-  </si>
-  <si>
-    <t>EX_inost_e</t>
-  </si>
-  <si>
-    <t>EX_2m35mdntha_e</t>
-  </si>
-  <si>
-    <t>EX_35dnta_e</t>
-  </si>
-  <si>
-    <t>EX_acgam_e</t>
-  </si>
-  <si>
-    <t>EX_acmana_e</t>
-  </si>
-  <si>
-    <t>EX_ncam_e</t>
-  </si>
-  <si>
-    <t>EX_no3_e</t>
-  </si>
-  <si>
-    <t>EX_no2_e</t>
-  </si>
-  <si>
-    <t>EX_nona_e</t>
-  </si>
-  <si>
-    <t>EX_ocdca_e</t>
-  </si>
-  <si>
-    <t>EX_ocdcea_e</t>
-  </si>
-  <si>
-    <t>EX_octa_e</t>
-  </si>
-  <si>
-    <t>EX_orn_e</t>
-  </si>
-  <si>
-    <t>EX_oxa_e</t>
-  </si>
-  <si>
-    <t>EX_pta_e</t>
-  </si>
-  <si>
-    <t>EX_ptsla_e</t>
-  </si>
-  <si>
-    <t>EX_pacald_e</t>
-  </si>
-  <si>
-    <t>EX_pea_e</t>
-  </si>
-  <si>
-    <t>EX_pime_e</t>
-  </si>
-  <si>
-    <t>EX_p_xyl_e</t>
-  </si>
-  <si>
-    <t>EX_ppa_e</t>
-  </si>
-  <si>
-    <t>EX_pheme_e</t>
-  </si>
-  <si>
-    <t>EX_pyovd_kt_e</t>
-  </si>
-  <si>
-    <t>EX_raffin_e</t>
-  </si>
-  <si>
-    <t>EX_gthrd_e</t>
-  </si>
-  <si>
-    <t>EX_salchs2_e</t>
-  </si>
-  <si>
-    <t>EX_salchs4fe_e</t>
-  </si>
-  <si>
-    <t>EX_slnt_e</t>
-  </si>
-  <si>
-    <t>EX_serglugly_e</t>
-  </si>
-  <si>
-    <t>EX_sheme_e</t>
-  </si>
-  <si>
-    <t>EX_g3pi_e</t>
-  </si>
-  <si>
-    <t>EX_g3pc_e</t>
-  </si>
-  <si>
-    <t>EX_g3pe_e</t>
-  </si>
-  <si>
-    <t>EX_stfrnB_e</t>
-  </si>
-  <si>
-    <t>EX_starch_e</t>
-  </si>
-  <si>
-    <t>EX_sucr_e</t>
-  </si>
-  <si>
-    <t>EX_so3_e</t>
-  </si>
-  <si>
-    <t>EX_s_e</t>
-  </si>
-  <si>
-    <t>EX_ttdca_e</t>
-  </si>
-  <si>
-    <t>EX_ttdcea_e</t>
-  </si>
-  <si>
-    <t>EX_tcynt_e</t>
-  </si>
-  <si>
-    <t>EX_thymd_e</t>
-  </si>
-  <si>
-    <t>EX_thym_e</t>
-  </si>
-  <si>
-    <t>EX_tol_e</t>
-  </si>
-  <si>
-    <t>EX_cinnm_e</t>
-  </si>
-  <si>
-    <t>EX_tre_e</t>
-  </si>
-  <si>
-    <t>EX_udcpdp_e</t>
-  </si>
-  <si>
-    <t>EX_udcpp_e</t>
-  </si>
-  <si>
-    <t>EX_ura_e</t>
-  </si>
-  <si>
-    <t>EX_uri_e</t>
-  </si>
-  <si>
-    <t>EX_xan_e</t>
   </si>
 </sst>
 </file>
@@ -2453,7 +2510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G294"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2490,10 +2547,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2504,13 +2561,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2521,13 +2578,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F4" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2541,10 +2598,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F5" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2558,10 +2615,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2575,10 +2632,10 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2592,10 +2649,10 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2609,10 +2666,10 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2626,10 +2683,10 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F10" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2646,13 +2703,13 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F11" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="G11" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2666,10 +2723,10 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F12" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2683,10 +2740,10 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2700,10 +2757,10 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F14" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2717,10 +2774,10 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2737,13 +2794,13 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F16" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="G16" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2756,17 +2813,11 @@
       <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F17" t="s">
-        <v>357</v>
-      </c>
-      <c r="G17" t="s">
-        <v>445</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2780,10 +2831,10 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F18" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2797,10 +2848,10 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F19" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2814,10 +2865,10 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F20" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2831,10 +2882,10 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F21" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2848,10 +2899,10 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F22" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2865,10 +2916,10 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F23" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2882,10 +2933,10 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2896,19 +2947,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D25" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="E25" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F25" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G25" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2922,10 +2973,10 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F26" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2939,10 +2990,10 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F27" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2956,10 +3007,10 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F28" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2970,19 +3021,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F29" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G29" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2993,19 +3044,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F30" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G30" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3019,16 +3070,16 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="E31" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F31" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="G31" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3042,16 +3093,16 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="E32" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F32" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="G32" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3068,13 +3119,13 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F33" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G33" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3085,19 +3136,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F34" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="G34" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3110,11 +3161,17 @@
       <c r="C35" t="s">
         <v>39</v>
       </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
       <c r="E35" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="F35" t="s">
-        <v>375</v>
+        <v>388</v>
+      </c>
+      <c r="G35" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3128,16 +3185,16 @@
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="E36" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F36" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="G36" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3151,10 +3208,10 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F37" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3168,16 +3225,16 @@
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="E38" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F38" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="G38" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3194,13 +3251,13 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F39" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G39" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3214,10 +3271,10 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F40" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3234,13 +3291,13 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F41" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="G41" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3254,16 +3311,16 @@
         <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="E42" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F42" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="G42" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3277,10 +3334,10 @@
         <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F43" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3294,16 +3351,16 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E44" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F44" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G44" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3314,19 +3371,19 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="D45" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E45" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F45" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G45" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3340,16 +3397,16 @@
         <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="E46" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F46" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="G46" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3360,19 +3417,19 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D47" t="s">
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F47" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="G47" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3389,13 +3446,13 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F48" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="G48" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3409,10 +3466,10 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F49" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3426,10 +3483,10 @@
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F50" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3443,10 +3500,10 @@
         <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F51" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3463,13 +3520,13 @@
         <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F52" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="G52" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3486,13 +3543,13 @@
         <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F53" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="G53" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3506,16 +3563,16 @@
         <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E54" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F54" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="G54" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3529,16 +3586,16 @@
         <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="E55" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F55" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="G55" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3555,13 +3612,13 @@
         <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F56" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="G56" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3578,13 +3635,13 @@
         <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F57" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G57" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3601,13 +3658,13 @@
         <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F58" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="G58" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3624,13 +3681,13 @@
         <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F59" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="G59" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3644,10 +3701,10 @@
         <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3664,13 +3721,13 @@
         <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F61" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="G61" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3687,13 +3744,13 @@
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F62" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="G62" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3710,13 +3767,13 @@
         <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F63" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="G63" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3733,13 +3790,13 @@
         <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F64" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="G64" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3756,13 +3813,13 @@
         <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F65" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="G65" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3779,13 +3836,13 @@
         <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F66" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="G66" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3802,13 +3859,13 @@
         <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F67" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="G67" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3825,13 +3882,13 @@
         <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F68" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="G68" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3844,17 +3901,11 @@
       <c r="C69" t="s">
         <v>73</v>
       </c>
-      <c r="D69" t="s">
-        <v>73</v>
-      </c>
       <c r="E69" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F69" t="s">
-        <v>409</v>
-      </c>
-      <c r="G69" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3871,13 +3922,13 @@
         <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F70" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="G70" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3894,13 +3945,13 @@
         <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F71" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="G71" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3913,17 +3964,11 @@
       <c r="C72" t="s">
         <v>76</v>
       </c>
-      <c r="D72" t="s">
-        <v>76</v>
-      </c>
       <c r="E72" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F72" t="s">
-        <v>412</v>
-      </c>
-      <c r="G72" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3936,17 +3981,11 @@
       <c r="C73" t="s">
         <v>77</v>
       </c>
-      <c r="D73" t="s">
-        <v>77</v>
-      </c>
       <c r="E73" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F73" t="s">
-        <v>413</v>
-      </c>
-      <c r="G73" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3959,17 +3998,11 @@
       <c r="C74" t="s">
         <v>78</v>
       </c>
-      <c r="D74" t="s">
-        <v>78</v>
-      </c>
       <c r="E74" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F74" t="s">
-        <v>414</v>
-      </c>
-      <c r="G74" t="s">
-        <v>484</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3986,13 +4019,13 @@
         <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F75" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="G75" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4009,13 +4042,13 @@
         <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F76" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="G76" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4029,10 +4062,10 @@
         <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F77" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4046,10 +4079,10 @@
         <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F78" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4063,10 +4096,10 @@
         <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F79" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4077,19 +4110,19 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="D80" t="s">
         <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F80" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="G80" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4100,19 +4133,19 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="D81" t="s">
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F81" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="G81" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4123,19 +4156,19 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D82" t="s">
         <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F82" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="G82" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4146,19 +4179,19 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="D83" t="s">
         <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F83" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="G83" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4169,19 +4202,19 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D84" t="s">
         <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F84" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="G84" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4192,13 +4225,13 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="E85" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F85" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4209,13 +4242,13 @@
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="E86" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F86" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4226,13 +4259,13 @@
         <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E87" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F87" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4243,19 +4276,19 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D88" t="s">
         <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F88" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="G88" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4266,13 +4299,19 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>314</v>
+        <v>326</v>
+      </c>
+      <c r="D89" t="s">
+        <v>350</v>
       </c>
       <c r="E89" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="F89" t="s">
-        <v>429</v>
+        <v>442</v>
+      </c>
+      <c r="G89" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4283,19 +4322,19 @@
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D90" t="s">
         <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F90" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="G90" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4306,13 +4345,13 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E91" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F91" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4323,13 +4362,13 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="E92" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F92" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4340,19 +4379,19 @@
         <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="D93" t="s">
         <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F93" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="G93" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4363,13 +4402,13 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="E94" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F94" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4380,19 +4419,19 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D95" t="s">
         <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F95" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="G95" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4403,19 +4442,13 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>321</v>
-      </c>
-      <c r="D96" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="E96" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F96" t="s">
-        <v>436</v>
-      </c>
-      <c r="G96" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4426,19 +4459,19 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="D97" t="s">
         <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F97" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="G97" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4449,19 +4482,19 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D98" t="s">
         <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F98" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="G98" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4472,13 +4505,19 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>324</v>
+        <v>336</v>
+      </c>
+      <c r="D99" t="s">
+        <v>103</v>
       </c>
       <c r="E99" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="F99" t="s">
-        <v>439</v>
+        <v>452</v>
+      </c>
+      <c r="G99" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4489,19 +4528,19 @@
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D100" t="s">
         <v>104</v>
       </c>
       <c r="E100" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F100" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="G100" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4512,19 +4551,13 @@
         <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>326</v>
-      </c>
-      <c r="D101" t="s">
         <v>338</v>
       </c>
       <c r="E101" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F101" t="s">
-        <v>441</v>
-      </c>
-      <c r="G101" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4541,13 +4574,13 @@
         <v>106</v>
       </c>
       <c r="E102" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F102" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="G102" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4561,10 +4594,10 @@
         <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G103" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4578,10 +4611,10 @@
         <v>108</v>
       </c>
       <c r="E104" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G104" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4595,10 +4628,10 @@
         <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G105" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4612,10 +4645,10 @@
         <v>110</v>
       </c>
       <c r="E106" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G106" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4629,10 +4662,10 @@
         <v>111</v>
       </c>
       <c r="E107" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G107" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4646,10 +4679,10 @@
         <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G108" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4663,10 +4696,10 @@
         <v>113</v>
       </c>
       <c r="E109" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G109" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4680,10 +4713,10 @@
         <v>114</v>
       </c>
       <c r="E110" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G110" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4697,10 +4730,10 @@
         <v>115</v>
       </c>
       <c r="E111" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G111" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4714,10 +4747,10 @@
         <v>116</v>
       </c>
       <c r="E112" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G112" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4731,10 +4764,10 @@
         <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G113" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4748,10 +4781,10 @@
         <v>118</v>
       </c>
       <c r="E114" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G114" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4765,10 +4798,10 @@
         <v>119</v>
       </c>
       <c r="E115" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G115" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4782,10 +4815,10 @@
         <v>120</v>
       </c>
       <c r="E116" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G116" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4799,10 +4832,10 @@
         <v>121</v>
       </c>
       <c r="E117" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G117" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4816,10 +4849,10 @@
         <v>122</v>
       </c>
       <c r="E118" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G118" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4833,10 +4866,10 @@
         <v>123</v>
       </c>
       <c r="E119" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G119" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4850,10 +4883,10 @@
         <v>124</v>
       </c>
       <c r="E120" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G120" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4867,10 +4900,10 @@
         <v>125</v>
       </c>
       <c r="E121" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G121" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4884,10 +4917,10 @@
         <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G122" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4901,10 +4934,10 @@
         <v>127</v>
       </c>
       <c r="E123" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G123" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4918,10 +4951,10 @@
         <v>128</v>
       </c>
       <c r="E124" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G124" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4935,10 +4968,10 @@
         <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G125" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4952,10 +4985,10 @@
         <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G126" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4969,10 +5002,10 @@
         <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G127" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4986,10 +5019,10 @@
         <v>132</v>
       </c>
       <c r="E128" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G128" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5003,10 +5036,10 @@
         <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G129" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5020,10 +5053,10 @@
         <v>134</v>
       </c>
       <c r="E130" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G130" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5037,10 +5070,10 @@
         <v>135</v>
       </c>
       <c r="E131" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G131" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5054,10 +5087,10 @@
         <v>136</v>
       </c>
       <c r="E132" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G132" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5071,10 +5104,10 @@
         <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G133" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5088,10 +5121,10 @@
         <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G134" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5105,10 +5138,10 @@
         <v>139</v>
       </c>
       <c r="E135" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G135" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5122,10 +5155,10 @@
         <v>140</v>
       </c>
       <c r="E136" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G136" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5139,10 +5172,10 @@
         <v>141</v>
       </c>
       <c r="E137" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G137" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5156,10 +5189,10 @@
         <v>142</v>
       </c>
       <c r="E138" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G138" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5173,10 +5206,10 @@
         <v>143</v>
       </c>
       <c r="E139" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G139" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5190,10 +5223,10 @@
         <v>144</v>
       </c>
       <c r="E140" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G140" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5207,10 +5240,10 @@
         <v>145</v>
       </c>
       <c r="E141" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G141" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5224,10 +5257,10 @@
         <v>146</v>
       </c>
       <c r="E142" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G142" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5241,10 +5274,10 @@
         <v>147</v>
       </c>
       <c r="E143" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G143" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5258,10 +5291,10 @@
         <v>148</v>
       </c>
       <c r="E144" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G144" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5275,10 +5308,10 @@
         <v>149</v>
       </c>
       <c r="E145" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G145" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5292,10 +5325,10 @@
         <v>150</v>
       </c>
       <c r="E146" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G146" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5309,10 +5342,10 @@
         <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G147" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5326,10 +5359,10 @@
         <v>152</v>
       </c>
       <c r="E148" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G148" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5343,10 +5376,10 @@
         <v>153</v>
       </c>
       <c r="E149" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G149" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5360,10 +5393,10 @@
         <v>154</v>
       </c>
       <c r="E150" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G150" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5377,10 +5410,10 @@
         <v>155</v>
       </c>
       <c r="E151" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G151" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5394,10 +5427,10 @@
         <v>156</v>
       </c>
       <c r="E152" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G152" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5411,10 +5444,10 @@
         <v>157</v>
       </c>
       <c r="E153" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G153" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5428,10 +5461,10 @@
         <v>158</v>
       </c>
       <c r="E154" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G154" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5445,10 +5478,10 @@
         <v>159</v>
       </c>
       <c r="E155" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G155" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5462,10 +5495,10 @@
         <v>160</v>
       </c>
       <c r="E156" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G156" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5479,10 +5512,10 @@
         <v>161</v>
       </c>
       <c r="E157" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G157" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5496,10 +5529,10 @@
         <v>162</v>
       </c>
       <c r="E158" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G158" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5513,10 +5546,10 @@
         <v>163</v>
       </c>
       <c r="E159" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G159" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5530,10 +5563,10 @@
         <v>164</v>
       </c>
       <c r="E160" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G160" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5547,10 +5580,10 @@
         <v>165</v>
       </c>
       <c r="E161" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G161" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5564,10 +5597,10 @@
         <v>166</v>
       </c>
       <c r="E162" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G162" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5581,10 +5614,10 @@
         <v>167</v>
       </c>
       <c r="E163" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G163" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5598,10 +5631,10 @@
         <v>168</v>
       </c>
       <c r="E164" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G164" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5615,10 +5648,10 @@
         <v>169</v>
       </c>
       <c r="E165" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G165" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5632,10 +5665,10 @@
         <v>170</v>
       </c>
       <c r="E166" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G166" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5649,10 +5682,10 @@
         <v>171</v>
       </c>
       <c r="E167" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G167" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5666,10 +5699,10 @@
         <v>172</v>
       </c>
       <c r="E168" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G168" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5683,10 +5716,10 @@
         <v>173</v>
       </c>
       <c r="E169" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G169" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5700,10 +5733,10 @@
         <v>174</v>
       </c>
       <c r="E170" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G170" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5717,10 +5750,10 @@
         <v>175</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G171" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5734,10 +5767,10 @@
         <v>176</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G172" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5751,10 +5784,10 @@
         <v>177</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G173" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5768,10 +5801,10 @@
         <v>178</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G174" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5785,10 +5818,10 @@
         <v>179</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G175" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5802,10 +5835,10 @@
         <v>180</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G176" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5819,10 +5852,10 @@
         <v>181</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G177" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5836,10 +5869,10 @@
         <v>182</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G178" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5853,10 +5886,10 @@
         <v>183</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G179" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5870,10 +5903,10 @@
         <v>184</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G180" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5887,10 +5920,10 @@
         <v>185</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G181" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5904,10 +5937,10 @@
         <v>186</v>
       </c>
       <c r="E182" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G182" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5921,10 +5954,10 @@
         <v>187</v>
       </c>
       <c r="E183" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G183" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5938,10 +5971,10 @@
         <v>188</v>
       </c>
       <c r="E184" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G184" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5955,10 +5988,10 @@
         <v>189</v>
       </c>
       <c r="E185" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G185" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5972,10 +6005,10 @@
         <v>190</v>
       </c>
       <c r="E186" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G186" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5989,10 +6022,10 @@
         <v>191</v>
       </c>
       <c r="E187" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G187" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6006,10 +6039,10 @@
         <v>192</v>
       </c>
       <c r="E188" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G188" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6023,10 +6056,10 @@
         <v>193</v>
       </c>
       <c r="E189" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G189" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6040,10 +6073,10 @@
         <v>194</v>
       </c>
       <c r="E190" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G190" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6057,10 +6090,10 @@
         <v>195</v>
       </c>
       <c r="E191" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G191" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6074,10 +6107,10 @@
         <v>196</v>
       </c>
       <c r="E192" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G192" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6091,10 +6124,10 @@
         <v>197</v>
       </c>
       <c r="E193" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G193" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6108,10 +6141,10 @@
         <v>198</v>
       </c>
       <c r="E194" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G194" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6125,10 +6158,10 @@
         <v>199</v>
       </c>
       <c r="E195" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G195" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6142,10 +6175,10 @@
         <v>200</v>
       </c>
       <c r="E196" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G196" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6159,10 +6192,10 @@
         <v>201</v>
       </c>
       <c r="E197" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G197" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6176,10 +6209,10 @@
         <v>202</v>
       </c>
       <c r="E198" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G198" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6193,10 +6226,10 @@
         <v>203</v>
       </c>
       <c r="E199" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G199" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6210,10 +6243,10 @@
         <v>204</v>
       </c>
       <c r="E200" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G200" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6227,10 +6260,10 @@
         <v>205</v>
       </c>
       <c r="E201" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G201" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6244,10 +6277,10 @@
         <v>206</v>
       </c>
       <c r="E202" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G202" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6261,10 +6294,10 @@
         <v>207</v>
       </c>
       <c r="E203" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G203" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6278,10 +6311,10 @@
         <v>208</v>
       </c>
       <c r="E204" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G204" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6295,10 +6328,10 @@
         <v>209</v>
       </c>
       <c r="E205" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G205" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6312,10 +6345,10 @@
         <v>210</v>
       </c>
       <c r="E206" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G206" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6329,10 +6362,10 @@
         <v>211</v>
       </c>
       <c r="E207" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G207" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6346,10 +6379,10 @@
         <v>212</v>
       </c>
       <c r="E208" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G208" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6363,10 +6396,10 @@
         <v>213</v>
       </c>
       <c r="E209" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G209" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6380,10 +6413,10 @@
         <v>214</v>
       </c>
       <c r="E210" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G210" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6397,10 +6430,10 @@
         <v>215</v>
       </c>
       <c r="E211" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G211" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6414,10 +6447,10 @@
         <v>216</v>
       </c>
       <c r="E212" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G212" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6431,10 +6464,10 @@
         <v>217</v>
       </c>
       <c r="E213" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G213" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6448,10 +6481,10 @@
         <v>218</v>
       </c>
       <c r="E214" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G214" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6465,10 +6498,10 @@
         <v>219</v>
       </c>
       <c r="E215" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G215" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6482,10 +6515,10 @@
         <v>220</v>
       </c>
       <c r="E216" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G216" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6499,10 +6532,10 @@
         <v>221</v>
       </c>
       <c r="E217" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G217" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6516,10 +6549,10 @@
         <v>222</v>
       </c>
       <c r="E218" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G218" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6533,10 +6566,10 @@
         <v>223</v>
       </c>
       <c r="E219" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G219" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6550,10 +6583,10 @@
         <v>224</v>
       </c>
       <c r="E220" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G220" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6567,10 +6600,10 @@
         <v>225</v>
       </c>
       <c r="E221" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G221" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6584,10 +6617,10 @@
         <v>226</v>
       </c>
       <c r="E222" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G222" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6601,10 +6634,10 @@
         <v>227</v>
       </c>
       <c r="E223" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G223" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6618,10 +6651,10 @@
         <v>228</v>
       </c>
       <c r="E224" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G224" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6635,10 +6668,10 @@
         <v>229</v>
       </c>
       <c r="E225" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G225" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6652,10 +6685,10 @@
         <v>230</v>
       </c>
       <c r="E226" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G226" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6669,10 +6702,10 @@
         <v>231</v>
       </c>
       <c r="E227" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G227" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6686,10 +6719,10 @@
         <v>232</v>
       </c>
       <c r="E228" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G228" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6703,10 +6736,10 @@
         <v>233</v>
       </c>
       <c r="E229" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G229" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6720,10 +6753,10 @@
         <v>234</v>
       </c>
       <c r="E230" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G230" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6737,10 +6770,10 @@
         <v>235</v>
       </c>
       <c r="E231" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G231" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6754,10 +6787,10 @@
         <v>236</v>
       </c>
       <c r="E232" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G232" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6771,10 +6804,10 @@
         <v>237</v>
       </c>
       <c r="E233" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G233" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6788,10 +6821,10 @@
         <v>238</v>
       </c>
       <c r="E234" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G234" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6805,10 +6838,10 @@
         <v>239</v>
       </c>
       <c r="E235" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G235" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6822,10 +6855,10 @@
         <v>240</v>
       </c>
       <c r="E236" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G236" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6839,10 +6872,10 @@
         <v>241</v>
       </c>
       <c r="E237" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G237" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6853,13 +6886,13 @@
         <v>242</v>
       </c>
       <c r="D238" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
       <c r="E238" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G238" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6873,10 +6906,10 @@
         <v>243</v>
       </c>
       <c r="E239" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G239" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6890,10 +6923,10 @@
         <v>244</v>
       </c>
       <c r="E240" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G240" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6907,10 +6940,10 @@
         <v>245</v>
       </c>
       <c r="E241" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G241" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6924,10 +6957,10 @@
         <v>246</v>
       </c>
       <c r="E242" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G242" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6941,10 +6974,10 @@
         <v>247</v>
       </c>
       <c r="E243" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G243" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6958,10 +6991,10 @@
         <v>248</v>
       </c>
       <c r="E244" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G244" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6975,10 +7008,10 @@
         <v>249</v>
       </c>
       <c r="E245" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G245" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6992,10 +7025,10 @@
         <v>250</v>
       </c>
       <c r="E246" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G246" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7009,10 +7042,10 @@
         <v>251</v>
       </c>
       <c r="E247" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G247" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7026,10 +7059,10 @@
         <v>252</v>
       </c>
       <c r="E248" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G248" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7043,10 +7076,10 @@
         <v>253</v>
       </c>
       <c r="E249" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G249" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7060,10 +7093,10 @@
         <v>254</v>
       </c>
       <c r="E250" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G250" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7077,10 +7110,10 @@
         <v>255</v>
       </c>
       <c r="E251" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G251" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7094,10 +7127,10 @@
         <v>256</v>
       </c>
       <c r="E252" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G252" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7111,10 +7144,10 @@
         <v>257</v>
       </c>
       <c r="E253" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G253" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7128,10 +7161,10 @@
         <v>258</v>
       </c>
       <c r="E254" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G254" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7145,10 +7178,10 @@
         <v>259</v>
       </c>
       <c r="E255" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G255" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7162,10 +7195,10 @@
         <v>260</v>
       </c>
       <c r="E256" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G256" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7179,10 +7212,10 @@
         <v>261</v>
       </c>
       <c r="E257" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G257" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7196,10 +7229,10 @@
         <v>262</v>
       </c>
       <c r="E258" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G258" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7213,10 +7246,10 @@
         <v>263</v>
       </c>
       <c r="E259" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G259" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7230,10 +7263,10 @@
         <v>264</v>
       </c>
       <c r="E260" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G260" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7247,10 +7280,10 @@
         <v>265</v>
       </c>
       <c r="E261" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G261" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7264,10 +7297,10 @@
         <v>266</v>
       </c>
       <c r="E262" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G262" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7281,10 +7314,10 @@
         <v>267</v>
       </c>
       <c r="E263" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G263" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7298,10 +7331,10 @@
         <v>268</v>
       </c>
       <c r="E264" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G264" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7315,10 +7348,10 @@
         <v>269</v>
       </c>
       <c r="E265" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G265" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7332,10 +7365,10 @@
         <v>270</v>
       </c>
       <c r="E266" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G266" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7349,10 +7382,10 @@
         <v>271</v>
       </c>
       <c r="E267" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G267" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7366,10 +7399,10 @@
         <v>272</v>
       </c>
       <c r="E268" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G268" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -7383,10 +7416,10 @@
         <v>273</v>
       </c>
       <c r="E269" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G269" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7400,10 +7433,10 @@
         <v>274</v>
       </c>
       <c r="E270" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G270" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -7417,10 +7450,10 @@
         <v>275</v>
       </c>
       <c r="E271" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G271" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -7434,10 +7467,10 @@
         <v>276</v>
       </c>
       <c r="E272" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G272" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -7451,10 +7484,10 @@
         <v>277</v>
       </c>
       <c r="E273" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G273" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -7468,10 +7501,10 @@
         <v>278</v>
       </c>
       <c r="E274" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G274" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -7485,10 +7518,10 @@
         <v>279</v>
       </c>
       <c r="E275" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G275" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -7502,10 +7535,10 @@
         <v>280</v>
       </c>
       <c r="E276" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G276" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -7519,10 +7552,10 @@
         <v>281</v>
       </c>
       <c r="E277" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G277" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -7536,10 +7569,10 @@
         <v>282</v>
       </c>
       <c r="E278" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G278" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7553,10 +7586,10 @@
         <v>283</v>
       </c>
       <c r="E279" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G279" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7570,10 +7603,10 @@
         <v>284</v>
       </c>
       <c r="E280" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G280" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -7587,10 +7620,10 @@
         <v>285</v>
       </c>
       <c r="E281" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G281" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -7604,10 +7637,10 @@
         <v>286</v>
       </c>
       <c r="E282" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G282" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -7621,10 +7654,10 @@
         <v>287</v>
       </c>
       <c r="E283" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G283" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -7638,10 +7671,10 @@
         <v>288</v>
       </c>
       <c r="E284" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G284" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -7655,10 +7688,10 @@
         <v>289</v>
       </c>
       <c r="E285" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G285" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -7672,10 +7705,10 @@
         <v>290</v>
       </c>
       <c r="E286" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G286" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -7689,10 +7722,10 @@
         <v>291</v>
       </c>
       <c r="E287" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G287" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7706,10 +7739,10 @@
         <v>292</v>
       </c>
       <c r="E288" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G288" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7723,10 +7756,10 @@
         <v>293</v>
       </c>
       <c r="E289" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G289" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7740,10 +7773,10 @@
         <v>294</v>
       </c>
       <c r="E290" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G290" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7757,10 +7790,10 @@
         <v>295</v>
       </c>
       <c r="E291" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G291" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7774,10 +7807,10 @@
         <v>296</v>
       </c>
       <c r="E292" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G292" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7791,10 +7824,10 @@
         <v>297</v>
       </c>
       <c r="E293" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G293" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7808,10 +7841,180 @@
         <v>298</v>
       </c>
       <c r="E294" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G294" t="s">
-        <v>693</v>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>299</v>
+      </c>
+      <c r="D295" t="s">
+        <v>299</v>
+      </c>
+      <c r="E295" t="s">
+        <v>354</v>
+      </c>
+      <c r="G295" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>300</v>
+      </c>
+      <c r="D296" t="s">
+        <v>300</v>
+      </c>
+      <c r="E296" t="s">
+        <v>354</v>
+      </c>
+      <c r="G296" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>301</v>
+      </c>
+      <c r="D297" t="s">
+        <v>301</v>
+      </c>
+      <c r="E297" t="s">
+        <v>354</v>
+      </c>
+      <c r="G297" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>302</v>
+      </c>
+      <c r="D298" t="s">
+        <v>302</v>
+      </c>
+      <c r="E298" t="s">
+        <v>354</v>
+      </c>
+      <c r="G298" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>303</v>
+      </c>
+      <c r="D299" t="s">
+        <v>303</v>
+      </c>
+      <c r="E299" t="s">
+        <v>354</v>
+      </c>
+      <c r="G299" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>304</v>
+      </c>
+      <c r="D300" t="s">
+        <v>304</v>
+      </c>
+      <c r="E300" t="s">
+        <v>354</v>
+      </c>
+      <c r="G300" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>305</v>
+      </c>
+      <c r="D301" t="s">
+        <v>305</v>
+      </c>
+      <c r="E301" t="s">
+        <v>354</v>
+      </c>
+      <c r="G301" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>306</v>
+      </c>
+      <c r="D302" t="s">
+        <v>306</v>
+      </c>
+      <c r="E302" t="s">
+        <v>354</v>
+      </c>
+      <c r="G302" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>307</v>
+      </c>
+      <c r="D303" t="s">
+        <v>307</v>
+      </c>
+      <c r="E303" t="s">
+        <v>354</v>
+      </c>
+      <c r="G303" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>308</v>
+      </c>
+      <c r="D304" t="s">
+        <v>308</v>
+      </c>
+      <c r="E304" t="s">
+        <v>354</v>
+      </c>
+      <c r="G304" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>
